--- a/Resources/1995/Master_1995.xlsx
+++ b/Resources/1995/Master_1995.xlsx
@@ -3522,10 +3522,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO2">
-        <v>34.80662983425414</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP2">
-        <v>101.6129032258064</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -3728,10 +3728,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BO3">
-        <v>49.17127071823204</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BP3">
-        <v>143.5483870967742</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -3934,10 +3934,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BO4">
-        <v>48.89502762430939</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP4">
-        <v>142.7419354838709</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -4140,10 +4140,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BO5">
-        <v>31.21546961325967</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP5">
-        <v>91.12903225806453</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -4346,10 +4346,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO6">
-        <v>39.50276243093923</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP6">
-        <v>115.3225806451613</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -4552,10 +4552,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO7">
-        <v>35.35911602209944</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP7">
-        <v>103.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -4758,10 +4758,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO8">
-        <v>32.04419889502762</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP8">
-        <v>93.54838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -4961,10 +4961,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO9">
-        <v>34.80662983425414</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP9">
-        <v>101.6129032258064</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -5167,10 +5167,10 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BO10">
-        <v>49.72375690607734</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BP10">
-        <v>145.1612903225806</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="11" spans="1:68">
@@ -5373,10 +5373,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BO11">
-        <v>48.34254143646409</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BP11">
-        <v>141.1290322580645</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -5579,10 +5579,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO12">
-        <v>28.45303867403315</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP12">
-        <v>83.06451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -5785,10 +5785,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO13">
-        <v>41.43646408839778</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BP13">
-        <v>120.9677419354839</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -5991,10 +5991,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO14">
-        <v>41.71270718232044</v>
+        <v>22.3756906077348</v>
       </c>
       <c r="BP14">
-        <v>121.7741935483871</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -6197,10 +6197,10 @@
         <v>30.04484304932735</v>
       </c>
       <c r="BO15">
-        <v>111.0497237569061</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP15">
-        <v>324.1935483870968</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -6403,10 +6403,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO16">
-        <v>37.56906077348066</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP16">
-        <v>109.6774193548387</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -6609,10 +6609,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO17">
-        <v>33.97790055248619</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP17">
-        <v>99.19354838709677</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -6815,10 +6815,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BO18">
-        <v>44.19889502762431</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP18">
-        <v>129.0322580645161</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -7018,10 +7018,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BO19">
-        <v>27.07182320441989</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP19">
-        <v>79.03225806451614</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -7224,10 +7224,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BO20">
-        <v>45.85635359116022</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BP20">
-        <v>133.8709677419355</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -7430,10 +7430,10 @@
         <v>18.83408071748879</v>
       </c>
       <c r="BO21">
-        <v>69.61325966850828</v>
+        <v>29.2817679558011</v>
       </c>
       <c r="BP21">
-        <v>203.2258064516129</v>
+        <v>41.12903225806451</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -7636,10 +7636,10 @@
         <v>15.6203288490284</v>
       </c>
       <c r="BO22">
-        <v>57.73480662983425</v>
+        <v>35.08287292817679</v>
       </c>
       <c r="BP22">
-        <v>168.5483870967742</v>
+        <v>42.74193548387096</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -7842,10 +7842,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO23">
-        <v>34.80662983425414</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP23">
-        <v>101.6129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -8048,10 +8048,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO24">
-        <v>29.83425414364641</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP24">
-        <v>87.09677419354838</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -8254,10 +8254,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO25">
-        <v>37.56906077348066</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP25">
-        <v>109.6774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -8457,10 +8457,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO26">
-        <v>38.39779005524861</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP26">
-        <v>112.0967741935484</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -8663,10 +8663,10 @@
         <v>24.28998505231689</v>
       </c>
       <c r="BO27">
-        <v>89.77900552486187</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP27">
-        <v>262.0967741935484</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -8866,10 +8866,10 @@
         <v>3.886397608370702</v>
       </c>
       <c r="BO28">
-        <v>14.3646408839779</v>
+        <v>0</v>
       </c>
       <c r="BP28">
-        <v>41.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -9072,10 +9072,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO29">
-        <v>38.39779005524861</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP29">
-        <v>112.0967741935484</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -9275,10 +9275,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO30">
-        <v>32.04419889502762</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP30">
-        <v>93.54838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -9481,10 +9481,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BO31">
-        <v>53.03867403314917</v>
+        <v>25.96685082872928</v>
       </c>
       <c r="BP31">
-        <v>154.8387096774194</v>
+        <v>46.7741935483871</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -9687,10 +9687,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO32">
-        <v>32.32044198895027</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP32">
-        <v>94.35483870967741</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -9893,10 +9893,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO33">
-        <v>46.68508287292817</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BP33">
-        <v>136.2903225806452</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -10096,10 +10096,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO34">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP34">
-        <v>76.61290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -10302,10 +10302,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO35">
-        <v>28.45303867403315</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP35">
-        <v>83.06451612903226</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -10508,10 +10508,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BO36">
-        <v>25.96685082872928</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP36">
-        <v>75.80645161290323</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -10714,10 +10714,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO37">
-        <v>32.32044198895027</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP37">
-        <v>94.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -10920,10 +10920,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO38">
-        <v>28.7292817679558</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP38">
-        <v>83.87096774193549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -11126,10 +11126,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BO39">
-        <v>40.88397790055249</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP39">
-        <v>119.3548387096774</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -11332,10 +11332,10 @@
         <v>13.97608370702541</v>
       </c>
       <c r="BO40">
-        <v>51.6574585635359</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP40">
-        <v>150.8064516129032</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -11538,10 +11538,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BO41">
-        <v>24.58563535911602</v>
+        <v>0</v>
       </c>
       <c r="BP41">
-        <v>71.7741935483871</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -11744,10 +11744,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BO42">
-        <v>41.16022099447514</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP42">
-        <v>120.1612903225807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -11950,10 +11950,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO43">
-        <v>34.25414364640883</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP43">
-        <v>100</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -12156,10 +12156,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO44">
-        <v>43.37016574585635</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BP44">
-        <v>126.6129032258064</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -12362,10 +12362,10 @@
         <v>1.345291479820628</v>
       </c>
       <c r="BO45">
-        <v>4.972375690607735</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP45">
-        <v>14.51612903225807</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -12568,10 +12568,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO46">
-        <v>33.42541436464088</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP46">
-        <v>97.58064516129032</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -12774,10 +12774,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO47">
-        <v>32.59668508287293</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP47">
-        <v>95.16129032258065</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -12980,10 +12980,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO48">
-        <v>36.46408839779005</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP48">
-        <v>106.4516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -13186,10 +13186,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO49">
-        <v>38.12154696132596</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP49">
-        <v>111.2903225806452</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="50" spans="1:68">
@@ -13392,10 +13392,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO50">
-        <v>41.43646408839778</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP50">
-        <v>120.9677419354839</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -13598,10 +13598,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO51">
-        <v>38.39779005524861</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP51">
-        <v>112.0967741935484</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -13804,10 +13804,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO52">
-        <v>27.62430939226519</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP52">
-        <v>80.64516129032258</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -14010,10 +14010,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO53">
-        <v>37.29281767955801</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BP53">
-        <v>108.8709677419355</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -14213,10 +14213,10 @@
         <v>3.288490284005979</v>
       </c>
       <c r="BO54">
-        <v>12.15469613259669</v>
+        <v>0</v>
       </c>
       <c r="BP54">
-        <v>35.48387096774194</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -14419,10 +14419,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO55">
-        <v>42.54143646408839</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP55">
-        <v>124.1935483870968</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -14625,10 +14625,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO56">
-        <v>35.63535911602209</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP56">
-        <v>104.0322580645161</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -14831,10 +14831,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO57">
-        <v>38.39779005524861</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP57">
-        <v>112.0967741935484</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -15034,10 +15034,10 @@
         <v>2.989536621823617</v>
       </c>
       <c r="BO58">
-        <v>11.04972375690608</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP58">
-        <v>32.25806451612903</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -15240,10 +15240,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO59">
-        <v>43.92265193370166</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BP59">
-        <v>128.2258064516129</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -15446,10 +15446,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO60">
-        <v>31.49171270718232</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP60">
-        <v>91.93548387096774</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -15652,10 +15652,10 @@
         <v>14.87294469357249</v>
       </c>
       <c r="BO61">
-        <v>54.97237569060772</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP61">
-        <v>160.4838709677419</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -15858,10 +15858,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO62">
-        <v>34.53038674033149</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP62">
-        <v>100.8064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -16064,10 +16064,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO63">
-        <v>42.26519337016575</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP63">
-        <v>123.3870967741936</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -16270,10 +16270,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO64">
-        <v>39.22651933701657</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP64">
-        <v>114.516129032258</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -16476,10 +16476,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO65">
-        <v>30.38674033149171</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP65">
-        <v>88.70967741935483</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -16682,10 +16682,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO66">
-        <v>30.93922651933701</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP66">
-        <v>90.32258064516128</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -16888,10 +16888,10 @@
         <v>-2.765321375186846</v>
       </c>
       <c r="BO67">
-        <v>-10.22099447513812</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP67">
-        <v>-29.83870967741936</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -17094,10 +17094,10 @@
         <v>14.20029895366218</v>
       </c>
       <c r="BO68">
-        <v>52.48618784530387</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP68">
-        <v>153.2258064516129</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -17300,10 +17300,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO69">
-        <v>34.53038674033149</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP69">
-        <v>100.8064516129032</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -17506,10 +17506,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BO70">
-        <v>31.21546961325967</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP70">
-        <v>91.12903225806453</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -17712,10 +17712,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO71">
-        <v>37.56906077348066</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP71">
-        <v>109.6774193548387</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -17900,10 +17900,7 @@
         <v>13.45291479820628</v>
       </c>
       <c r="BO72">
-        <v>49.72375690607734</v>
-      </c>
-      <c r="BP72">
-        <v>145.1612903225806</v>
+        <v>16.85082872928177</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -18106,10 +18103,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BO73">
-        <v>33.14917127071823</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP73">
-        <v>96.77419354838709</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -18312,10 +18309,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO74">
-        <v>33.70165745856353</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP74">
-        <v>98.38709677419354</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -18518,10 +18515,10 @@
         <v>-1.868460388639761</v>
       </c>
       <c r="BO75">
-        <v>-6.906077348066297</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP75">
-        <v>-20.16129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -18721,10 +18718,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO76">
-        <v>36.74033149171271</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP76">
-        <v>107.258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -18924,10 +18921,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BO77">
-        <v>24.86187845303867</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP77">
-        <v>72.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -19130,10 +19127,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BO78">
-        <v>42.81767955801104</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BP78">
-        <v>125</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -19336,10 +19333,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO79">
-        <v>26.79558011049724</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP79">
-        <v>78.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -19536,10 +19533,10 @@
         <v>-25.33632286995515</v>
       </c>
       <c r="BO80">
-        <v>-93.646408839779</v>
+        <v>0</v>
       </c>
       <c r="BP80">
-        <v>-273.3870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -19739,10 +19736,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO81">
-        <v>32.87292817679558</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP81">
-        <v>95.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -19945,10 +19942,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO82">
-        <v>44.47513812154696</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BP82">
-        <v>129.8387096774194</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -20151,10 +20148,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO83">
-        <v>40.60773480662983</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP83">
-        <v>118.5483870967742</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -20357,10 +20354,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BO84">
-        <v>22.3756906077348</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP84">
-        <v>65.32258064516128</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -20563,10 +20560,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO85">
-        <v>33.70165745856353</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP85">
-        <v>98.38709677419354</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -20769,10 +20766,10 @@
         <v>4.409566517189836</v>
       </c>
       <c r="BO86">
-        <v>16.29834254143647</v>
+        <v>0</v>
       </c>
       <c r="BP86">
-        <v>47.58064516129033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -20975,10 +20972,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO87">
-        <v>39.77900552486188</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP87">
-        <v>116.1290322580645</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -21181,10 +21178,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO88">
-        <v>32.59668508287293</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP88">
-        <v>95.16129032258065</v>
+        <v>-9.67741935483871</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -21387,10 +21384,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO89">
-        <v>38.12154696132596</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BP89">
-        <v>111.2903225806452</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -21590,10 +21587,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO90">
-        <v>38.39779005524861</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP90">
-        <v>112.0967741935484</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -21796,10 +21793,10 @@
         <v>15.32137518684604</v>
       </c>
       <c r="BO91">
-        <v>56.62983425414364</v>
+        <v>26.24309392265193</v>
       </c>
       <c r="BP91">
-        <v>165.3225806451613</v>
+        <v>41.12903225806451</v>
       </c>
     </row>
     <row r="92" spans="1:68">
@@ -21999,10 +21996,10 @@
         <v>5.904334828101645</v>
       </c>
       <c r="BO92">
-        <v>21.8232044198895</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP92">
-        <v>63.70967741935484</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -22205,10 +22202,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BO93">
-        <v>46.96132596685082</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP93">
-        <v>137.0967741935484</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -22408,10 +22405,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BO94">
-        <v>21.54696132596685</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP94">
-        <v>62.90322580645162</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -22614,10 +22611,10 @@
         <v>16.74140508221225</v>
       </c>
       <c r="BO95">
-        <v>61.87845303867402</v>
+        <v>32.32044198895027</v>
       </c>
       <c r="BP95">
-        <v>180.6451612903226</v>
+        <v>47.58064516129033</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -22820,10 +22817,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BO96">
-        <v>27.34806629834254</v>
+        <v>0</v>
       </c>
       <c r="BP96">
-        <v>79.83870967741935</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -23026,10 +23023,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO97">
-        <v>30.11049723756906</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP97">
-        <v>87.90322580645162</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -23232,10 +23229,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO98">
-        <v>38.39779005524861</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP98">
-        <v>112.0967741935484</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -23438,10 +23435,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BO99">
-        <v>42.54143646408839</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP99">
-        <v>124.1935483870968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -23644,10 +23641,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BO100">
-        <v>24.30939226519337</v>
+        <v>0</v>
       </c>
       <c r="BP100">
-        <v>70.96774193548387</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -23850,10 +23847,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO101">
-        <v>33.70165745856353</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP101">
-        <v>98.38709677419354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -24056,10 +24053,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO102">
-        <v>33.42541436464088</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP102">
-        <v>97.58064516129032</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -24259,10 +24256,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BO103">
-        <v>18.23204419889503</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP103">
-        <v>53.2258064516129</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -24465,10 +24462,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO104">
-        <v>32.04419889502762</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP104">
-        <v>93.54838709677419</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -24671,10 +24668,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO105">
-        <v>27.90055248618784</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP105">
-        <v>81.45161290322579</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -24874,10 +24871,10 @@
         <v>4.035874439461884</v>
       </c>
       <c r="BO106">
-        <v>14.91712707182321</v>
+        <v>0</v>
       </c>
       <c r="BP106">
-        <v>43.54838709677419</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -25080,10 +25077,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO107">
-        <v>32.32044198895027</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP107">
-        <v>94.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -25286,10 +25283,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO108">
-        <v>38.39779005524861</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP108">
-        <v>112.0967741935484</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -25492,10 +25489,10 @@
         <v>4.559043348281016</v>
       </c>
       <c r="BO109">
-        <v>16.85082872928177</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BP109">
-        <v>49.19354838709677</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -25698,10 +25695,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BO110">
-        <v>37.84530386740331</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP110">
-        <v>110.4838709677419</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -25904,10 +25901,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BO111">
-        <v>44.19889502762431</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BP111">
-        <v>129.0322580645161</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -26110,10 +26107,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO112">
-        <v>35.63535911602209</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP112">
-        <v>104.0322580645161</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -26316,10 +26313,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO113">
-        <v>39.77900552486188</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP113">
-        <v>116.1290322580645</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -26519,10 +26516,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO114">
-        <v>36.1878453038674</v>
+        <v>0</v>
       </c>
       <c r="BP114">
-        <v>105.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -26725,10 +26722,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO115">
-        <v>36.74033149171271</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP115">
-        <v>107.258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -26931,10 +26928,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BO116">
-        <v>21.2707182320442</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP116">
-        <v>62.09677419354838</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -27137,10 +27134,10 @@
         <v>16.3677130044843</v>
       </c>
       <c r="BO117">
-        <v>60.49723756906077</v>
+        <v>26.51933701657459</v>
       </c>
       <c r="BP117">
-        <v>176.6129032258064</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:68">
@@ -27343,10 +27340,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO118">
-        <v>34.53038674033149</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP118">
-        <v>100.8064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="119" spans="1:68">
@@ -27549,10 +27546,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BO119">
-        <v>44.19889502762431</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP119">
-        <v>129.0322580645161</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -27755,10 +27752,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BO120">
-        <v>29.2817679558011</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP120">
-        <v>85.48387096774192</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -27961,10 +27958,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO121">
-        <v>40.33149171270718</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP121">
-        <v>117.7419354838709</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -28167,10 +28164,10 @@
         <v>4.708520179372197</v>
       </c>
       <c r="BO122">
-        <v>17.40331491712707</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP122">
-        <v>50.80645161290322</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -28373,10 +28370,10 @@
         <v>0.2989536621823617</v>
       </c>
       <c r="BO123">
-        <v>1.104972375690608</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP123">
-        <v>3.225806451612903</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -28579,10 +28576,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO124">
-        <v>27.90055248618784</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP124">
-        <v>81.45161290322579</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -28785,10 +28782,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BO125">
-        <v>46.40883977900553</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP125">
-        <v>135.483870967742</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -28991,10 +28988,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BO126">
-        <v>19.88950276243094</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP126">
-        <v>58.06451612903226</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -29197,10 +29194,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO127">
-        <v>45.02762430939226</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP127">
-        <v>131.4516129032258</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -29403,10 +29400,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO128">
-        <v>27.90055248618784</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP128">
-        <v>81.45161290322579</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -29609,10 +29606,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BO129">
-        <v>53.86740331491713</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP129">
-        <v>157.258064516129</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -29815,10 +29812,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BO130">
-        <v>25.41436464088397</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP130">
-        <v>74.19354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -30021,10 +30018,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO131">
-        <v>35.63535911602209</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BP131">
-        <v>104.0322580645161</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -30227,10 +30224,10 @@
         <v>1.494768310911809</v>
       </c>
       <c r="BO132">
-        <v>5.524861878453039</v>
+        <v>0</v>
       </c>
       <c r="BP132">
-        <v>16.12903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -30433,10 +30430,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO133">
-        <v>41.98895027624309</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP133">
-        <v>122.5806451612903</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -30639,10 +30636,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO134">
-        <v>50</v>
+        <v>18.23204419889503</v>
       </c>
       <c r="BP134">
-        <v>145.9677419354839</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -30845,10 +30842,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO135">
-        <v>26.24309392265193</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP135">
-        <v>76.61290322580645</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -31045,10 +31042,10 @@
         <v>13.67713004484305</v>
       </c>
       <c r="BO136">
-        <v>50.5524861878453</v>
+        <v>0</v>
       </c>
       <c r="BP136">
-        <v>147.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -31251,10 +31248,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BO137">
-        <v>45.58011049723756</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BP137">
-        <v>133.0645161290323</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -31457,10 +31454,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO138">
-        <v>41.71270718232044</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP138">
-        <v>121.7741935483871</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -31663,10 +31660,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BO139">
-        <v>25.13812154696132</v>
+        <v>0</v>
       </c>
       <c r="BP139">
-        <v>73.38709677419354</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -31869,10 +31866,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO140">
-        <v>36.46408839779005</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP140">
-        <v>106.4516129032258</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -32075,10 +32072,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO141">
-        <v>46.68508287292817</v>
+        <v>26.24309392265193</v>
       </c>
       <c r="BP141">
-        <v>136.2903225806452</v>
+        <v>29.83870967741936</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -32281,10 +32278,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BO142">
-        <v>29.2817679558011</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP142">
-        <v>85.48387096774192</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -32487,10 +32484,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO143">
-        <v>39.22651933701657</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BP143">
-        <v>114.516129032258</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -32693,10 +32690,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO144">
-        <v>41.98895027624309</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP144">
-        <v>122.5806451612903</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -32899,10 +32896,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BO145">
-        <v>22.92817679558011</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP145">
-        <v>66.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -33105,10 +33102,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO146">
-        <v>32.87292817679558</v>
+        <v>0</v>
       </c>
       <c r="BP146">
-        <v>95.96774193548387</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -33308,10 +33305,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BO147">
-        <v>55.52486187845304</v>
+        <v>0</v>
       </c>
       <c r="BP147">
-        <v>162.0967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -33514,10 +33511,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO148">
-        <v>40.60773480662983</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP148">
-        <v>118.5483870967742</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -33720,10 +33717,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO149">
-        <v>30.93922651933701</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP149">
-        <v>90.32258064516128</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -33926,10 +33923,10 @@
         <v>15.54559043348281</v>
       </c>
       <c r="BO150">
-        <v>57.4585635359116</v>
+        <v>29.55801104972375</v>
       </c>
       <c r="BP150">
-        <v>167.741935483871</v>
+        <v>36.29032258064516</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -34132,10 +34129,10 @@
         <v>13.67713004484305</v>
       </c>
       <c r="BO151">
-        <v>50.5524861878453</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP151">
-        <v>147.5806451612903</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -34338,10 +34335,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO152">
-        <v>27.90055248618784</v>
+        <v>0</v>
       </c>
       <c r="BP152">
-        <v>81.45161290322579</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -34544,10 +34541,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO153">
-        <v>34.80662983425414</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BP153">
-        <v>101.6129032258064</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -34750,10 +34747,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO154">
-        <v>33.70165745856353</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP154">
-        <v>98.38709677419354</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -34956,10 +34953,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO155">
-        <v>41.71270718232044</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP155">
-        <v>121.7741935483871</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -35162,10 +35159,10 @@
         <v>13.15396113602392</v>
       </c>
       <c r="BO156">
-        <v>48.61878453038674</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP156">
-        <v>141.9354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -35368,10 +35365,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO157">
-        <v>28.45303867403315</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP157">
-        <v>83.06451612903226</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="158" spans="1:68">
@@ -35574,10 +35571,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO158">
-        <v>45.02762430939226</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BP158">
-        <v>131.4516129032258</v>
+        <v>29.83870967741936</v>
       </c>
     </row>
     <row r="159" spans="1:68">
@@ -35780,10 +35777,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO159">
-        <v>33.42541436464088</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP159">
-        <v>97.58064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="160" spans="1:68">
@@ -35986,10 +35983,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO160">
-        <v>32.32044198895027</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP160">
-        <v>94.35483870967741</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -36192,10 +36189,10 @@
         <v>4.559043348281016</v>
       </c>
       <c r="BO161">
-        <v>16.85082872928177</v>
+        <v>0</v>
       </c>
       <c r="BP161">
-        <v>49.19354838709677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -36398,10 +36395,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BO162">
-        <v>19.61325966850828</v>
+        <v>0</v>
       </c>
       <c r="BP162">
-        <v>57.25806451612902</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -36604,10 +36601,10 @@
         <v>14.20029895366218</v>
       </c>
       <c r="BO163">
-        <v>52.48618784530387</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BP163">
-        <v>153.2258064516129</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -36810,10 +36807,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BO164">
-        <v>46.40883977900553</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BP164">
-        <v>135.483870967742</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -37016,10 +37013,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BO165">
-        <v>23.48066298342541</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP165">
-        <v>68.54838709677419</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -37222,10 +37219,10 @@
         <v>13.90134529147982</v>
       </c>
       <c r="BO166">
-        <v>51.38121546961326</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BP166">
-        <v>150</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -37428,10 +37425,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO167">
-        <v>37.29281767955801</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP167">
-        <v>108.8709677419355</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="168" spans="1:68">
@@ -37634,10 +37631,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO168">
-        <v>45.3038674033149</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP168">
-        <v>132.258064516129</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -37840,10 +37837,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO169">
-        <v>38.12154696132596</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP169">
-        <v>111.2903225806452</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -38040,10 +38037,10 @@
         <v>0.1494768310911809</v>
       </c>
       <c r="BO170">
-        <v>0.5524861878453038</v>
+        <v>0</v>
       </c>
       <c r="BP170">
-        <v>1.612903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -38246,10 +38243,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO171">
-        <v>41.43646408839778</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP171">
-        <v>120.9677419354839</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="172" spans="1:68">
@@ -38452,10 +38449,10 @@
         <v>-0.6726457399103138</v>
       </c>
       <c r="BO172">
-        <v>-2.486187845303867</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP172">
-        <v>-7.258064516129033</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -38658,10 +38655,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO173">
-        <v>29.00552486187845</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP173">
-        <v>84.67741935483872</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -38864,10 +38861,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BO174">
-        <v>21.2707182320442</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP174">
-        <v>62.09677419354838</v>
+        <v>-11.29032258064516</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -39070,10 +39067,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BO175">
-        <v>24.03314917127071</v>
+        <v>0</v>
       </c>
       <c r="BP175">
-        <v>70.16129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -39276,10 +39273,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BO176">
-        <v>52.20994475138121</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP176">
-        <v>152.4193548387097</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -39482,10 +39479,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO177">
-        <v>38.67403314917127</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BP177">
-        <v>112.9032258064516</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -39688,10 +39685,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO178">
-        <v>42.26519337016575</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP178">
-        <v>123.3870967741936</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -39894,10 +39891,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO179">
-        <v>43.37016574585635</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BP179">
-        <v>126.6129032258064</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="180" spans="1:68">
@@ -40100,10 +40097,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO180">
-        <v>26.51933701657459</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP180">
-        <v>77.41935483870968</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="181" spans="1:68">
@@ -40306,10 +40303,10 @@
         <v>15.69506726457399</v>
       </c>
       <c r="BO181">
-        <v>58.0110497237569</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP181">
-        <v>169.3548387096774</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="182" spans="1:68">
@@ -40512,10 +40509,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO182">
-        <v>47.23756906077348</v>
+        <v>23.48066298342541</v>
       </c>
       <c r="BP182">
-        <v>137.9032258064516</v>
+        <v>32.25806451612903</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -40718,10 +40715,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BO183">
-        <v>22.92817679558011</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP183">
-        <v>66.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -40921,10 +40918,10 @@
         <v>1.943198804185351</v>
       </c>
       <c r="BO184">
-        <v>7.18232044198895</v>
+        <v>0</v>
       </c>
       <c r="BP184">
-        <v>20.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="185" spans="1:68">
@@ -41127,10 +41124,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO185">
-        <v>45.02762430939226</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BP185">
-        <v>131.4516129032258</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -41333,10 +41330,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO186">
-        <v>38.12154696132596</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP186">
-        <v>111.2903225806452</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="187" spans="1:68">
@@ -41539,10 +41536,10 @@
         <v>16.51718983557549</v>
       </c>
       <c r="BO187">
-        <v>61.04972375690607</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP187">
-        <v>178.2258064516129</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -41742,10 +41739,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO188">
-        <v>41.71270718232044</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP188">
-        <v>121.7741935483871</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -41948,10 +41945,10 @@
         <v>16.21823617339312</v>
       </c>
       <c r="BO189">
-        <v>59.94475138121547</v>
+        <v>29.2817679558011</v>
       </c>
       <c r="BP189">
-        <v>175</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -42154,10 +42151,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO190">
-        <v>37.29281767955801</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BP190">
-        <v>108.8709677419355</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -42360,10 +42357,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BO191">
-        <v>40.05524861878452</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP191">
-        <v>116.9354838709677</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -42566,10 +42563,10 @@
         <v>3.736920777279521</v>
       </c>
       <c r="BO192">
-        <v>13.81215469613259</v>
+        <v>0</v>
       </c>
       <c r="BP192">
-        <v>40.32258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -42772,10 +42769,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO193">
-        <v>41.71270718232044</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP193">
-        <v>121.7741935483871</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -42975,10 +42972,10 @@
         <v>-14.7982062780269</v>
       </c>
       <c r="BO194">
-        <v>-54.69613259668508</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP194">
-        <v>-159.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -43181,10 +43178,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO195">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP195">
-        <v>76.61290322580645</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -43384,10 +43381,10 @@
         <v>-2.391629297458894</v>
       </c>
       <c r="BO196">
-        <v>-8.839779005524861</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP196">
-        <v>-25.80645161290322</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -43590,10 +43587,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BO197">
-        <v>27.07182320441989</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP197">
-        <v>79.03225806451614</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -43796,10 +43793,10 @@
         <v>6.95067264573991</v>
       </c>
       <c r="BO198">
-        <v>25.69060773480663</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP198">
-        <v>75</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -44002,10 +43999,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO199">
-        <v>26.24309392265193</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP199">
-        <v>76.61290322580645</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="200" spans="1:68">
@@ -44205,10 +44202,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BO200">
-        <v>26.24309392265193</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP200">
-        <v>76.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -44411,10 +44408,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BO201">
-        <v>54.69613259668508</v>
+        <v>27.62430939226519</v>
       </c>
       <c r="BP201">
-        <v>159.6774193548387</v>
+        <v>33.06451612903226</v>
       </c>
     </row>
     <row r="202" spans="1:68">
@@ -44617,10 +44614,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BO202">
-        <v>48.89502762430939</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BP202">
-        <v>142.7419354838709</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -44823,10 +44820,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO203">
-        <v>36.1878453038674</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BP203">
-        <v>105.6451612903226</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -45026,10 +45023,10 @@
         <v>0.2242152466367713</v>
       </c>
       <c r="BO204">
-        <v>0.8287292817679558</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP204">
-        <v>2.419354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="205" spans="1:68">
@@ -45232,10 +45229,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO205">
-        <v>33.70165745856353</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP205">
-        <v>98.38709677419354</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="206" spans="1:68">
@@ -45438,10 +45435,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO206">
-        <v>50</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP206">
-        <v>145.9677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -45644,10 +45641,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO207">
-        <v>43.92265193370166</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP207">
-        <v>128.2258064516129</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -45850,10 +45847,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BO208">
-        <v>26.79558011049724</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP208">
-        <v>78.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -46056,10 +46053,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO209">
-        <v>29.00552486187845</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP209">
-        <v>84.67741935483872</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="210" spans="1:68">
@@ -46262,10 +46259,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO210">
-        <v>28.17679558011049</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP210">
-        <v>82.25806451612902</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="211" spans="1:68">
@@ -46468,10 +46465,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BO211">
-        <v>35.08287292817679</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP211">
-        <v>102.4193548387097</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="212" spans="1:68">
@@ -46674,10 +46671,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO212">
-        <v>39.77900552486188</v>
+        <v>18.23204419889503</v>
       </c>
       <c r="BP212">
-        <v>116.1290322580645</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="213" spans="1:68">
@@ -46880,10 +46877,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO213">
-        <v>33.97790055248619</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP213">
-        <v>99.19354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -47086,10 +47083,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO214">
-        <v>35.63535911602209</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP214">
-        <v>104.0322580645161</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -47292,10 +47289,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO215">
-        <v>34.25414364640883</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP215">
-        <v>100</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="216" spans="1:68">
@@ -47498,10 +47495,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO216">
-        <v>32.32044198895027</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP216">
-        <v>94.35483870967741</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -47704,10 +47701,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO217">
-        <v>34.53038674033149</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP217">
-        <v>100.8064516129032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:68">
@@ -47910,10 +47907,10 @@
         <v>3.811659192825111</v>
       </c>
       <c r="BO218">
-        <v>14.08839779005525</v>
+        <v>0</v>
       </c>
       <c r="BP218">
-        <v>41.12903225806451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:68">
@@ -48116,10 +48113,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BO219">
-        <v>32.59668508287293</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP219">
-        <v>95.16129032258065</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="220" spans="1:68">
@@ -48322,10 +48319,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO220">
-        <v>41.71270718232044</v>
+        <v>21.2707182320442</v>
       </c>
       <c r="BP220">
-        <v>121.7741935483871</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="221" spans="1:68">
@@ -48528,10 +48525,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BO221">
-        <v>43.92265193370166</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP221">
-        <v>128.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="222" spans="1:68">
@@ -48734,10 +48731,10 @@
         <v>18.7593423019432</v>
       </c>
       <c r="BO222">
-        <v>69.33701657458563</v>
+        <v>38.12154696132596</v>
       </c>
       <c r="BP222">
-        <v>202.4193548387097</v>
+        <v>49.19354838709677</v>
       </c>
     </row>
     <row r="223" spans="1:68">
@@ -48940,10 +48937,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO223">
-        <v>33.42541436464088</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP223">
-        <v>97.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="224" spans="1:68">
@@ -49146,10 +49143,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BO224">
-        <v>50</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BP224">
-        <v>145.9677419354839</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="225" spans="1:68">
@@ -49352,10 +49349,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO225">
-        <v>39.22651933701657</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP225">
-        <v>114.516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="226" spans="1:68">
@@ -49558,10 +49555,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO226">
-        <v>34.53038674033149</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP226">
-        <v>100.8064516129032</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="227" spans="1:68">
@@ -49758,10 +49755,10 @@
         <v>2.466367713004484</v>
       </c>
       <c r="BO227">
-        <v>9.116022099447513</v>
+        <v>0</v>
       </c>
       <c r="BP227">
-        <v>26.61290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:68">
@@ -49964,10 +49961,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO228">
-        <v>28.45303867403315</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP228">
-        <v>83.06451612903226</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="229" spans="1:68">
@@ -50170,10 +50167,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO229">
-        <v>47.79005524861878</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BP229">
-        <v>139.5161290322581</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="230" spans="1:68">
@@ -50376,10 +50373,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BO230">
-        <v>41.16022099447514</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BP230">
-        <v>120.1612903225807</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="231" spans="1:68">
@@ -50582,10 +50579,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO231">
-        <v>32.32044198895027</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP231">
-        <v>94.35483870967741</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="232" spans="1:68">
@@ -50788,10 +50785,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BO232">
-        <v>32.87292817679558</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP232">
-        <v>95.96774193548387</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="233" spans="1:68">
@@ -50994,10 +50991,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BO233">
-        <v>27.34806629834254</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP233">
-        <v>79.83870967741935</v>
+        <v>-9.67741935483871</v>
       </c>
     </row>
     <row r="234" spans="1:68">
@@ -51200,10 +51197,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BO234">
-        <v>46.96132596685082</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP234">
-        <v>137.0967741935484</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -51406,10 +51403,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO235">
-        <v>35.35911602209944</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP235">
-        <v>103.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -51609,10 +51606,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO236">
-        <v>27.62430939226519</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP236">
-        <v>80.64516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -51815,10 +51812,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO237">
-        <v>41.43646408839778</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BP237">
-        <v>120.9677419354839</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="238" spans="1:68">
@@ -52021,10 +52018,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO238">
-        <v>36.74033149171271</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP238">
-        <v>107.258064516129</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="239" spans="1:68">
@@ -52227,10 +52224,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BO239">
-        <v>36.1878453038674</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP239">
-        <v>105.6451612903226</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -52430,10 +52427,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO240">
-        <v>42.26519337016575</v>
+        <v>0</v>
       </c>
       <c r="BP240">
-        <v>123.3870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:68">
@@ -52636,10 +52633,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO241">
-        <v>40.60773480662983</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP241">
-        <v>118.5483870967742</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="242" spans="1:68">
@@ -52842,10 +52839,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO242">
-        <v>46.68508287292817</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP242">
-        <v>136.2903225806452</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="243" spans="1:68">
@@ -53048,10 +53045,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BO243">
-        <v>55.52486187845304</v>
+        <v>31.49171270718232</v>
       </c>
       <c r="BP243">
-        <v>162.0967741935484</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="244" spans="1:68">
@@ -53254,10 +53251,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO244">
-        <v>32.04419889502762</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BP244">
-        <v>93.54838709677419</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="245" spans="1:68">
@@ -53460,10 +53457,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO245">
-        <v>40.60773480662983</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP245">
-        <v>118.5483870967742</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="246" spans="1:68">
@@ -53666,10 +53663,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BO246">
-        <v>23.48066298342541</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BP246">
-        <v>68.54838709677419</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="247" spans="1:68">
@@ -53872,10 +53869,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO247">
-        <v>40.60773480662983</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP247">
-        <v>118.5483870967742</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="248" spans="1:68">
@@ -54078,10 +54075,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BO248">
-        <v>37.01657458563536</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP248">
-        <v>108.0645161290323</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="249" spans="1:68">
@@ -54284,10 +54281,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO249">
-        <v>39.50276243093923</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP249">
-        <v>115.3225806451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:68">
@@ -54490,10 +54487,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO250">
-        <v>33.42541436464088</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP250">
-        <v>97.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="251" spans="1:68">
@@ -54696,10 +54693,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BO251">
-        <v>42.81767955801104</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP251">
-        <v>125</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="252" spans="1:68">
@@ -54902,10 +54899,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO252">
-        <v>30.38674033149171</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP252">
-        <v>88.70967741935483</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="253" spans="1:68">
@@ -55108,10 +55105,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BO253">
-        <v>55.52486187845304</v>
+        <v>25.96685082872928</v>
       </c>
       <c r="BP253">
-        <v>162.0967741935484</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="254" spans="1:68">
@@ -55314,10 +55311,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BO254">
-        <v>48.89502762430939</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP254">
-        <v>142.7419354838709</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="255" spans="1:68">
@@ -55520,10 +55517,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO255">
-        <v>47.79005524861878</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BP255">
-        <v>139.5161290322581</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="256" spans="1:68">
@@ -55723,10 +55720,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BO256">
-        <v>48.06629834254143</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BP256">
-        <v>140.3225806451613</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="257" spans="1:68">
@@ -55929,10 +55926,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO257">
-        <v>32.04419889502762</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BP257">
-        <v>93.54838709677419</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -56135,10 +56132,10 @@
         <v>8.071748878923767</v>
       </c>
       <c r="BO258">
-        <v>29.83425414364641</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP258">
-        <v>87.09677419354838</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="259" spans="1:68">
@@ -56338,10 +56335,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BO259">
-        <v>46.96132596685082</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BP259">
-        <v>137.0967741935484</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="260" spans="1:68">
@@ -56544,10 +56541,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BO260">
-        <v>25.13812154696132</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP260">
-        <v>73.38709677419354</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="261" spans="1:68">
@@ -56747,10 +56744,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BO261">
-        <v>20.16574585635359</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP261">
-        <v>58.87096774193547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:68">
@@ -56953,10 +56950,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO262">
-        <v>28.7292817679558</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP262">
-        <v>83.87096774193549</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="263" spans="1:68">
@@ -57159,10 +57156,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BO263">
-        <v>40.88397790055249</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP263">
-        <v>119.3548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="264" spans="1:68">
@@ -57362,10 +57359,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BO264">
-        <v>18.78453038674033</v>
+        <v>0</v>
       </c>
       <c r="BP264">
-        <v>54.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="265" spans="1:68">
@@ -57568,10 +57565,10 @@
         <v>21.37518684603886</v>
       </c>
       <c r="BO265">
-        <v>79.00552486187846</v>
+        <v>38.67403314917127</v>
       </c>
       <c r="BP265">
-        <v>230.6451612903226</v>
+        <v>43.54838709677419</v>
       </c>
     </row>
     <row r="266" spans="1:68">
@@ -57774,10 +57771,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO266">
-        <v>39.50276243093923</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BP266">
-        <v>115.3225806451613</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="267" spans="1:68">
@@ -57980,10 +57977,10 @@
         <v>19.43198804185351</v>
       </c>
       <c r="BO267">
-        <v>71.82320441988949</v>
+        <v>29.55801104972375</v>
       </c>
       <c r="BP267">
-        <v>209.6774193548387</v>
+        <v>42.74193548387096</v>
       </c>
     </row>
     <row r="268" spans="1:68">
@@ -58183,10 +58180,10 @@
         <v>5.156950672645739</v>
       </c>
       <c r="BO268">
-        <v>19.06077348066298</v>
+        <v>0</v>
       </c>
       <c r="BP268">
-        <v>55.64516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="269" spans="1:68">
@@ -58389,10 +58386,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO269">
-        <v>36.74033149171271</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BP269">
-        <v>107.258064516129</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="270" spans="1:68">
@@ -58595,10 +58592,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO270">
-        <v>32.04419889502762</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP270">
-        <v>93.54838709677419</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="271" spans="1:68">
@@ -58801,10 +58798,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO271">
-        <v>43.0939226519337</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP271">
-        <v>125.8064516129032</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="272" spans="1:68">
@@ -59007,10 +59004,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO272">
-        <v>46.68508287292817</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP272">
-        <v>136.2903225806452</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="273" spans="1:68">
@@ -59210,10 +59207,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BO273">
-        <v>27.90055248618784</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP273">
-        <v>81.45161290322579</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="274" spans="1:68">
@@ -59416,10 +59413,10 @@
         <v>15.91928251121076</v>
       </c>
       <c r="BO274">
-        <v>58.83977900552486</v>
+        <v>32.32044198895027</v>
       </c>
       <c r="BP274">
-        <v>171.7741935483871</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="275" spans="1:68">
@@ -59622,10 +59619,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO275">
-        <v>38.12154696132596</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP275">
-        <v>111.2903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:68">
@@ -59825,10 +59822,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO276">
-        <v>41.98895027624309</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP276">
-        <v>122.5806451612903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:68">
@@ -60031,10 +60028,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO277">
-        <v>45.02762430939226</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BP277">
-        <v>131.4516129032258</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="278" spans="1:68">
@@ -60237,10 +60234,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO278">
-        <v>44.75138121546961</v>
+        <v>23.48066298342541</v>
       </c>
       <c r="BP278">
-        <v>130.6451612903226</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="279" spans="1:68">
@@ -60443,10 +60440,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BO279">
-        <v>47.79005524861878</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BP279">
-        <v>139.5161290322581</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="280" spans="1:68">
@@ -60649,10 +60646,10 @@
         <v>4.783258594917788</v>
       </c>
       <c r="BO280">
-        <v>17.67955801104972</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP280">
-        <v>51.61290322580645</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="281" spans="1:68">
@@ -60855,10 +60852,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BO281">
-        <v>31.76795580110497</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP281">
-        <v>92.74193548387096</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -61061,10 +61058,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO282">
-        <v>39.22651933701657</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP282">
-        <v>114.516129032258</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="283" spans="1:68">
@@ -61264,10 +61261,10 @@
         <v>-12.92974588938715</v>
       </c>
       <c r="BO283">
-        <v>-47.79005524861878</v>
+        <v>0</v>
       </c>
       <c r="BP283">
-        <v>-139.5161290322581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:68">
@@ -61470,10 +61467,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO284">
-        <v>33.70165745856353</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP284">
-        <v>98.38709677419354</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="285" spans="1:68">
@@ -61676,10 +61673,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO285">
-        <v>38.39779005524861</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP285">
-        <v>112.0967741935484</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="286" spans="1:68">
@@ -61882,10 +61879,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO286">
-        <v>41.71270718232044</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BP286">
-        <v>121.7741935483871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:68">
@@ -62085,10 +62082,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO287">
-        <v>30.11049723756906</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP287">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:68">
@@ -62291,10 +62288,10 @@
         <v>16.89088191330344</v>
       </c>
       <c r="BO288">
-        <v>62.43093922651934</v>
+        <v>32.59668508287293</v>
       </c>
       <c r="BP288">
-        <v>182.2580645161291</v>
+        <v>59.67741935483871</v>
       </c>
     </row>
     <row r="289" spans="1:68">
@@ -62497,10 +62494,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO289">
-        <v>40.60773480662983</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BP289">
-        <v>118.5483870967742</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="290" spans="1:68">
@@ -62703,10 +62700,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BO290">
-        <v>37.84530386740331</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP290">
-        <v>110.4838709677419</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="291" spans="1:68">
@@ -62909,10 +62906,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BO291">
-        <v>56.9060773480663</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BP291">
-        <v>166.1290322580645</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="292" spans="1:68">
@@ -63115,10 +63112,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BO292">
-        <v>22.3756906077348</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP292">
-        <v>65.32258064516128</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="293" spans="1:68">
@@ -63321,10 +63318,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BO293">
-        <v>49.44751381215469</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BP293">
-        <v>144.3548387096774</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="294" spans="1:68">
@@ -63524,10 +63521,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BO294">
-        <v>25.96685082872928</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP294">
-        <v>75.80645161290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:68">
@@ -63727,10 +63724,10 @@
         <v>3.288490284005979</v>
       </c>
       <c r="BO295">
-        <v>12.15469613259669</v>
+        <v>0</v>
       </c>
       <c r="BP295">
-        <v>35.48387096774194</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="296" spans="1:68">
@@ -63933,10 +63930,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BO296">
-        <v>42.26519337016575</v>
+        <v>0</v>
       </c>
       <c r="BP296">
-        <v>123.3870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:68">
@@ -64139,10 +64136,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO297">
-        <v>46.68508287292817</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP297">
-        <v>136.2903225806452</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="298" spans="1:68">
@@ -64345,10 +64342,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BO298">
-        <v>35.08287292817679</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BP298">
-        <v>102.4193548387097</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="299" spans="1:68">
@@ -64551,10 +64548,10 @@
         <v>14.72346786248131</v>
       </c>
       <c r="BO299">
-        <v>54.41988950276242</v>
+        <v>27.62430939226519</v>
       </c>
       <c r="BP299">
-        <v>158.8709677419355</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="300" spans="1:68">
@@ -64757,10 +64754,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO300">
-        <v>34.80662983425414</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP300">
-        <v>101.6129032258064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:68">
@@ -64963,10 +64960,10 @@
         <v>12.85500747384155</v>
       </c>
       <c r="BO301">
-        <v>47.51381215469613</v>
+        <v>22.09944751381216</v>
       </c>
       <c r="BP301">
-        <v>138.7096774193548</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="302" spans="1:68">
@@ -65169,10 +65166,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BO302">
-        <v>43.0939226519337</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP302">
-        <v>125.8064516129032</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="303" spans="1:68">
@@ -65375,10 +65372,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO303">
-        <v>40.60773480662983</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP303">
-        <v>118.5483870967742</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="304" spans="1:68">
@@ -65581,10 +65578,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO304">
-        <v>33.70165745856353</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP304">
-        <v>98.38709677419354</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="305" spans="1:68">
@@ -65787,10 +65784,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO305">
-        <v>32.04419889502762</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP305">
-        <v>93.54838709677419</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="306" spans="1:68">
@@ -65993,10 +65990,10 @@
         <v>13.67713004484305</v>
       </c>
       <c r="BO306">
-        <v>50.5524861878453</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BP306">
-        <v>147.5806451612903</v>
+        <v>28.2258064516129</v>
       </c>
     </row>
     <row r="307" spans="1:68">
@@ -66199,10 +66196,10 @@
         <v>21.74887892376681</v>
       </c>
       <c r="BO307">
-        <v>80.38674033149171</v>
+        <v>48.34254143646409</v>
       </c>
       <c r="BP307">
-        <v>234.6774193548387</v>
+        <v>65.32258064516128</v>
       </c>
     </row>
     <row r="308" spans="1:68">
@@ -66405,10 +66402,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BO308">
-        <v>45.85635359116022</v>
+        <v>8.839779005524861</v>
       </c>
       <c r="BP308">
-        <v>133.8709677419355</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="309" spans="1:68">
@@ -66611,10 +66608,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO309">
-        <v>29.00552486187845</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP309">
-        <v>84.67741935483872</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="310" spans="1:68">
@@ -66817,10 +66814,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BO310">
-        <v>45.85635359116022</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BP310">
-        <v>133.8709677419355</v>
+        <v>18.54838709677419</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -67023,10 +67020,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO311">
-        <v>39.50276243093923</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP311">
-        <v>115.3225806451613</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -67229,10 +67226,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO312">
-        <v>41.98895027624309</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP312">
-        <v>122.5806451612903</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="313" spans="1:68">
@@ -67432,10 +67429,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BO313">
-        <v>19.33701657458563</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP313">
-        <v>56.4516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:68">
@@ -67638,10 +67635,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO314">
-        <v>34.80662983425414</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BP314">
-        <v>101.6129032258064</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="315" spans="1:68">
@@ -67844,10 +67841,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BO315">
-        <v>41.71270718232044</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP315">
-        <v>121.7741935483871</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="316" spans="1:68">
@@ -68050,10 +68047,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BO316">
-        <v>33.70165745856353</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP316">
-        <v>98.38709677419354</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="317" spans="1:68">
@@ -68256,10 +68253,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BO317">
-        <v>31.76795580110497</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP317">
-        <v>92.74193548387096</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="318" spans="1:68">
@@ -68462,10 +68459,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BO318">
-        <v>42.81767955801104</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP318">
-        <v>125</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="319" spans="1:68">
@@ -68668,10 +68665,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO319">
-        <v>30.38674033149171</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP319">
-        <v>88.70967741935483</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="320" spans="1:68">
@@ -68871,10 +68868,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BO320">
-        <v>31.49171270718232</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP320">
-        <v>91.93548387096774</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="321" spans="1:68">
@@ -69077,10 +69074,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BO321">
-        <v>36.46408839779005</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BP321">
-        <v>106.4516129032258</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="322" spans="1:68">
@@ -69280,10 +69277,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO322">
-        <v>44.47513812154696</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP322">
-        <v>129.8387096774194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:68">
@@ -69483,10 +69480,10 @@
         <v>6.128550074738415</v>
       </c>
       <c r="BO323">
-        <v>22.65193370165745</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP323">
-        <v>66.12903225806451</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="324" spans="1:68">
@@ -69689,10 +69686,10 @@
         <v>15.17189835575486</v>
       </c>
       <c r="BO324">
-        <v>56.07734806629834</v>
+        <v>35.63535911602209</v>
       </c>
       <c r="BP324">
-        <v>163.7096774193548</v>
+        <v>37.90322580645162</v>
       </c>
     </row>
     <row r="325" spans="1:68">
@@ -69895,10 +69892,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BO325">
-        <v>43.64640883977901</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP325">
-        <v>127.4193548387097</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="326" spans="1:68">
@@ -70101,10 +70098,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO326">
-        <v>45.02762430939226</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BP326">
-        <v>131.4516129032258</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="327" spans="1:68">
@@ -70307,10 +70304,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BO327">
-        <v>40.60773480662983</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP327">
-        <v>118.5483870967742</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="328" spans="1:68">
@@ -70510,10 +70507,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BO328">
-        <v>35.08287292817679</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP328">
-        <v>102.4193548387097</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="329" spans="1:68">
@@ -70713,10 +70710,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BO329">
-        <v>45.85635359116022</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP329">
-        <v>133.8709677419355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:68">
@@ -70919,10 +70916,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BO330">
-        <v>28.7292817679558</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP330">
-        <v>83.87096774193549</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="331" spans="1:68">
@@ -71125,10 +71122,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BO331">
-        <v>27.62430939226519</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP331">
-        <v>80.64516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="332" spans="1:68">
@@ -71328,10 +71325,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO332">
-        <v>30.38674033149171</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP332">
-        <v>88.70967741935483</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="333" spans="1:68">
@@ -71534,10 +71531,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BO333">
-        <v>43.37016574585635</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BP333">
-        <v>126.6129032258064</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="334" spans="1:68">
@@ -71737,10 +71734,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BO334">
-        <v>40.05524861878452</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP334">
-        <v>116.9354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="335" spans="1:68">
@@ -71943,10 +71940,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BO335">
-        <v>38.39779005524861</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BP335">
-        <v>112.0967741935484</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="336" spans="1:68">
@@ -72149,10 +72146,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO336">
-        <v>30.93922651933701</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BP336">
-        <v>90.32258064516128</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="337" spans="1:68">
@@ -72355,10 +72352,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO337">
-        <v>30.38674033149171</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BP337">
-        <v>88.70967741935483</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="338" spans="1:68">
@@ -72561,10 +72558,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO338">
-        <v>44.75138121546961</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP338">
-        <v>130.6451612903226</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="339" spans="1:68">
@@ -72767,10 +72764,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BO339">
-        <v>36.74033149171271</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP339">
-        <v>107.258064516129</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="340" spans="1:68">
@@ -72973,10 +72970,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BO340">
-        <v>37.29281767955801</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BP340">
-        <v>108.8709677419355</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="341" spans="1:68">
@@ -73179,10 +73176,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO341">
-        <v>44.47513812154696</v>
+        <v>21.54696132596685</v>
       </c>
       <c r="BP341">
-        <v>129.8387096774194</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="342" spans="1:68">
@@ -73385,10 +73382,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BO342">
-        <v>30.38674033149171</v>
+        <v>3.591160220994475</v>
       </c>
       <c r="BP342">
-        <v>88.70967741935483</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="343" spans="1:68">
@@ -73591,10 +73588,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BO343">
-        <v>53.86740331491713</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BP343">
-        <v>157.258064516129</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="344" spans="1:68">
@@ -73797,10 +73794,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BO344">
-        <v>21.2707182320442</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BP344">
-        <v>62.09677419354838</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="345" spans="1:68">
@@ -74000,10 +73997,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BO345">
-        <v>33.97790055248619</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP345">
-        <v>99.19354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="346" spans="1:68">
@@ -74206,10 +74203,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BO346">
-        <v>38.95027624309392</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BP346">
-        <v>113.7096774193548</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="347" spans="1:68">
@@ -74412,10 +74409,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO347">
-        <v>38.12154696132596</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BP347">
-        <v>111.2903225806452</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="348" spans="1:68">
@@ -74618,10 +74615,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BO348">
-        <v>31.76795580110497</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BP348">
-        <v>92.74193548387096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:68">
@@ -74824,10 +74821,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BO349">
-        <v>39.77900552486188</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP349">
-        <v>116.1290322580645</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="350" spans="1:68">
@@ -75030,10 +75027,10 @@
         <v>17.41405082212257</v>
       </c>
       <c r="BO350">
-        <v>64.3646408839779</v>
+        <v>38.39779005524861</v>
       </c>
       <c r="BP350">
-        <v>187.9032258064516</v>
+        <v>43.54838709677419</v>
       </c>
     </row>
     <row r="351" spans="1:68">
@@ -75233,10 +75230,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO351">
-        <v>38.12154696132596</v>
+        <v>0</v>
       </c>
       <c r="BP351">
-        <v>111.2903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:68">
@@ -75439,10 +75436,10 @@
         <v>16.14349775784753</v>
       </c>
       <c r="BO352">
-        <v>59.66850828729282</v>
+        <v>23.48066298342541</v>
       </c>
       <c r="BP352">
-        <v>174.1935483870968</v>
+        <v>32.25806451612903</v>
       </c>
     </row>
     <row r="353" spans="1:68">
@@ -75645,10 +75642,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BO353">
-        <v>34.53038674033149</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BP353">
-        <v>100.8064516129032</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="354" spans="1:68">
@@ -75851,10 +75848,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BO354">
-        <v>29.2817679558011</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP354">
-        <v>85.48387096774192</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="355" spans="1:68">
@@ -76054,10 +76051,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BO355">
-        <v>32.32044198895027</v>
+        <v>0</v>
       </c>
       <c r="BP355">
-        <v>94.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:68">
@@ -76260,10 +76257,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BO356">
-        <v>30.93922651933701</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP356">
-        <v>90.32258064516128</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="357" spans="1:68">
@@ -76466,10 +76463,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BO357">
-        <v>49.17127071823204</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BP357">
-        <v>143.5483870967742</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="358" spans="1:68">
@@ -76672,10 +76669,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BO358">
-        <v>29.00552486187845</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP358">
-        <v>84.67741935483872</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="359" spans="1:68">
@@ -76875,10 +76872,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BO359">
-        <v>18.78453038674033</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP359">
-        <v>54.83870967741935</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="360" spans="1:68">
@@ -77081,10 +77078,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BO360">
-        <v>45.3038674033149</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BP360">
-        <v>132.258064516129</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="361" spans="1:68">
@@ -77287,10 +77284,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BO361">
-        <v>43.64640883977901</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BP361">
-        <v>127.4193548387097</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="362" spans="1:68">
@@ -77490,10 +77487,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO362">
-        <v>38.12154696132596</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP362">
-        <v>111.2903225806452</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="363" spans="1:68">
@@ -77696,10 +77693,10 @@
         <v>4.185351270553063</v>
       </c>
       <c r="BO363">
-        <v>15.4696132596685</v>
+        <v>0</v>
       </c>
       <c r="BP363">
-        <v>45.16129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="364" spans="1:68">
@@ -77899,10 +77896,10 @@
         <v>-4.633781763826607</v>
       </c>
       <c r="BO364">
-        <v>-17.12707182320442</v>
+        <v>0</v>
       </c>
       <c r="BP364">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:68">
@@ -78105,10 +78102,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BO365">
-        <v>25.41436464088397</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP365">
-        <v>74.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="366" spans="1:68">
@@ -78311,10 +78308,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO366">
-        <v>34.80662983425414</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP366">
-        <v>101.6129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="367" spans="1:68">
@@ -78517,10 +78514,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO367">
-        <v>26.51933701657459</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP367">
-        <v>77.41935483870968</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="368" spans="1:68">
@@ -78723,10 +78720,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BO368">
-        <v>23.48066298342541</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BP368">
-        <v>68.54838709677419</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="369" spans="1:68">
@@ -78929,10 +78926,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO369">
-        <v>45.02762430939226</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BP369">
-        <v>131.4516129032258</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="370" spans="1:68">
@@ -79135,10 +79132,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BO370">
-        <v>47.23756906077348</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BP370">
-        <v>137.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="371" spans="1:68">
@@ -79341,10 +79338,10 @@
         <v>-4.857997010463378</v>
       </c>
       <c r="BO371">
-        <v>-17.95580110497237</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP371">
-        <v>-52.41935483870967</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="372" spans="1:68">
@@ -79544,10 +79541,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BO372">
-        <v>18.23204419889503</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BP372">
-        <v>53.2258064516129</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="373" spans="1:68">
@@ -79750,10 +79747,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BO373">
-        <v>28.17679558011049</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BP373">
-        <v>82.25806451612902</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="374" spans="1:68">
@@ -79956,10 +79953,10 @@
         <v>-1.569506726457399</v>
       </c>
       <c r="BO374">
-        <v>-5.801104972375691</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP374">
-        <v>-16.93548387096774</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="375" spans="1:68">
@@ -80162,10 +80159,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BO375">
-        <v>26.51933701657459</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BP375">
-        <v>77.41935483870968</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="376" spans="1:68">
@@ -80368,10 +80365,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BO376">
-        <v>41.98895027624309</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP376">
-        <v>122.5806451612903</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="377" spans="1:68">
@@ -80574,10 +80571,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BO377">
-        <v>37.84530386740331</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP377">
-        <v>110.4838709677419</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="378" spans="1:68">
@@ -80780,10 +80777,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BO378">
-        <v>55.52486187845304</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BP378">
-        <v>162.0967741935484</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="379" spans="1:68">
@@ -80986,10 +80983,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO379">
-        <v>32.04419889502762</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BP379">
-        <v>93.54838709677419</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="380" spans="1:68">
@@ -81192,10 +81189,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BO380">
-        <v>35.63535911602209</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BP380">
-        <v>104.0322580645161</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="381" spans="1:68">
@@ -81398,10 +81395,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BO381">
-        <v>32.04419889502762</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP381">
-        <v>93.54838709677419</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="382" spans="1:68">
@@ -81601,10 +81598,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO382">
-        <v>35.35911602209944</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BP382">
-        <v>103.2258064516129</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="383" spans="1:68">
@@ -81807,10 +81804,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BO383">
-        <v>34.25414364640883</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BP383">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:68">
@@ -82013,10 +82010,10 @@
         <v>2.242152466367713</v>
       </c>
       <c r="BO384">
-        <v>8.287292817679557</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BP384">
-        <v>24.19354838709677</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="385" spans="1:68">
@@ -82219,10 +82216,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BO385">
-        <v>38.12154696132596</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BP385">
-        <v>111.2903225806452</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="386" spans="1:68">
@@ -82425,10 +82422,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BO386">
-        <v>45.02762430939226</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BP386">
-        <v>131.4516129032258</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="387" spans="1:68">
@@ -82631,10 +82628,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BO387">
-        <v>19.33701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BP387">
-        <v>56.4516129032258</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="388" spans="1:68">
@@ -82837,10 +82834,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BO388">
-        <v>37.56906077348066</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BP388">
-        <v>109.6774193548387</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="389" spans="1:68">
@@ -83040,10 +83037,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BO389">
-        <v>21.2707182320442</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BP389">
-        <v>62.09677419354838</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="390" spans="1:68">
@@ -83246,10 +83243,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BO390">
-        <v>40.33149171270718</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BP390">
-        <v>117.7419354838709</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="391" spans="1:68">
@@ -83452,10 +83449,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BO391">
-        <v>44.75138121546961</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BP391">
-        <v>130.6451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="392" spans="1:68">
@@ -83658,10 +83655,10 @@
         <v>3.139013452914798</v>
       </c>
       <c r="BO392">
-        <v>11.60220994475138</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BP392">
-        <v>33.87096774193549</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="393" spans="1:68">
@@ -83861,10 +83858,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO393">
-        <v>28.45303867403315</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP393">
-        <v>83.06451612903226</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="394" spans="1:68">
@@ -84064,10 +84061,10 @@
         <v>3.886397608370702</v>
       </c>
       <c r="BO394">
-        <v>14.3646408839779</v>
+        <v>0</v>
       </c>
       <c r="BP394">
-        <v>41.93548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:68">
@@ -84270,10 +84267,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BO395">
-        <v>23.20441988950276</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP395">
-        <v>67.74193548387098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:68">
@@ -84476,10 +84473,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BO396">
-        <v>46.68508287292817</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BP396">
-        <v>136.2903225806452</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="397" spans="1:68">
@@ -84682,10 +84679,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BO397">
-        <v>34.80662983425414</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BP397">
-        <v>101.6129032258064</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="398" spans="1:68">
@@ -84888,10 +84885,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BO398">
-        <v>41.43646408839778</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BP398">
-        <v>120.9677419354839</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:68">
@@ -85094,10 +85091,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BO399">
-        <v>44.47513812154696</v>
+        <v>9.94475138121547</v>
       </c>
       <c r="BP399">
-        <v>129.8387096774194</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="400" spans="1:68">
@@ -85297,10 +85294,10 @@
         <v>9.566517189835576</v>
       </c>
       <c r="BO400">
-        <v>35.35911602209944</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BP400">
-        <v>103.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:68">
@@ -85503,10 +85500,10 @@
         <v>6.053811659192824</v>
       </c>
       <c r="BO401">
-        <v>22.3756906077348</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BP401">
-        <v>65.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="402" spans="1:68">
@@ -85709,10 +85706,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BO402">
-        <v>39.22651933701657</v>
+        <v>0</v>
       </c>
       <c r="BP402">
-        <v>114.516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="403" spans="1:68">
@@ -85915,10 +85912,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BO403">
-        <v>18.78453038674033</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BP403">
-        <v>54.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="404" spans="1:68">
@@ -86121,10 +86118,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BO404">
-        <v>28.45303867403315</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BP404">
-        <v>83.06451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:68">
@@ -86327,10 +86324,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BO405">
-        <v>30.11049723756906</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP405">
-        <v>87.90322580645162</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="406" spans="1:68">
@@ -86533,10 +86530,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BO406">
-        <v>33.42541436464088</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BP406">
-        <v>97.58064516129032</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="407" spans="1:68">
@@ -86739,10 +86736,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BO407">
-        <v>38.67403314917127</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BP407">
-        <v>112.9032258064516</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="408" spans="1:68">
@@ -86945,10 +86942,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BO408">
-        <v>39.50276243093923</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BP408">
-        <v>115.3225806451613</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/1995/Master_1995.xlsx
+++ b/Resources/1995/Master_1995.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="464">
   <si>
     <t>PID</t>
   </si>
@@ -211,16 +211,10 @@
     <t>2ndRK</t>
   </si>
   <si>
-    <t>BPercentile_x</t>
-  </si>
-  <si>
-    <t>APercentile_x</t>
-  </si>
-  <si>
-    <t>BPercentile_y</t>
-  </si>
-  <si>
-    <t>APercentile_y</t>
+    <t>BPercentile</t>
+  </si>
+  <si>
+    <t>APercentile</t>
   </si>
   <si>
     <t>abdulma02</t>
@@ -1769,13 +1763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR188"/>
+  <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:68">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,31 +1971,25 @@
       <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G2">
         <v>2200000</v>
@@ -2184,36 +2172,30 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>158.2</v>
+        <v>55.72192513368984</v>
       </c>
       <c r="BP2">
-        <v>97.8</v>
-      </c>
-      <c r="BQ2">
-        <v>55.72192513368984</v>
-      </c>
-      <c r="BR2">
         <v>74.65240641711229</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:68">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G3">
         <v>250000</v>
@@ -2396,36 +2378,30 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>182.4</v>
+        <v>46.09625668449198</v>
       </c>
       <c r="BP3">
-        <v>282</v>
-      </c>
-      <c r="BQ3">
-        <v>46.09625668449198</v>
-      </c>
-      <c r="BR3">
         <v>24.59893048128342</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:68">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G4">
         <v>2080000</v>
@@ -2608,36 +2584,30 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>216</v>
+        <v>37.54010695187166</v>
       </c>
       <c r="BP4">
-        <v>133.4</v>
-      </c>
-      <c r="BQ4">
-        <v>37.54010695187166</v>
-      </c>
-      <c r="BR4">
         <v>66.41711229946524</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:68">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G5">
         <v>1377500</v>
@@ -2820,36 +2790,30 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>148.4</v>
+        <v>55.72192513368984</v>
       </c>
       <c r="BP5">
-        <v>242.2</v>
-      </c>
-      <c r="BQ5">
-        <v>55.72192513368984</v>
-      </c>
-      <c r="BR5">
         <v>33.58288770053476</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:68">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E6">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>150000</v>
@@ -3032,27 +2996,21 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>205.6</v>
+        <v>37.21925133689839</v>
       </c>
       <c r="BP6">
-        <v>293.4</v>
-      </c>
-      <c r="BQ6">
-        <v>37.21925133689839</v>
-      </c>
-      <c r="BR6">
         <v>19.89304812834225</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:68">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3061,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G7">
         <v>110000</v>
@@ -3241,36 +3199,30 @@
         <v>0</v>
       </c>
       <c r="BO7">
-        <v>267</v>
+        <v>42.13903743315508</v>
       </c>
       <c r="BP7">
-        <v>213</v>
-      </c>
-      <c r="BQ7">
-        <v>42.13903743315508</v>
-      </c>
-      <c r="BR7">
         <v>42.24598930481284</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:68">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E8">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G8">
         <v>2075000</v>
@@ -3453,36 +3405,30 @@
         <v>0</v>
       </c>
       <c r="BO8">
-        <v>223.4</v>
+        <v>33.47593582887701</v>
       </c>
       <c r="BP8">
-        <v>263</v>
-      </c>
-      <c r="BQ8">
-        <v>33.47593582887701</v>
-      </c>
-      <c r="BR8">
         <v>28.23529411764706</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:68">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E9">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G9">
         <v>1471000</v>
@@ -3665,36 +3611,30 @@
         <v>0</v>
       </c>
       <c r="BO9">
-        <v>227.2</v>
+        <v>37.11229946524065</v>
       </c>
       <c r="BP9">
-        <v>118.6</v>
-      </c>
-      <c r="BQ9">
-        <v>37.11229946524065</v>
-      </c>
-      <c r="BR9">
         <v>70.90909090909091</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:68">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G10">
         <v>406000</v>
@@ -3877,36 +3817,30 @@
         <v>0</v>
       </c>
       <c r="BO10">
-        <v>207.2</v>
+        <v>39.89304812834224</v>
       </c>
       <c r="BP10">
-        <v>231.4</v>
-      </c>
-      <c r="BQ10">
-        <v>39.89304812834224</v>
-      </c>
-      <c r="BR10">
         <v>37.11229946524065</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:68">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E11">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G11">
         <v>1662500</v>
@@ -4089,27 +4023,21 @@
         <v>0</v>
       </c>
       <c r="BO11">
-        <v>83.40000000000001</v>
+        <v>73.475935828877</v>
       </c>
       <c r="BP11">
-        <v>130.2</v>
-      </c>
-      <c r="BQ11">
-        <v>73.475935828877</v>
-      </c>
-      <c r="BR11">
         <v>67.05882352941177</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:68">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -4118,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G12">
         <v>1065300</v>
@@ -4301,36 +4229,30 @@
         <v>0</v>
       </c>
       <c r="BO12">
-        <v>49.6</v>
+        <v>84.17112299465242</v>
       </c>
       <c r="BP12">
-        <v>136.4</v>
-      </c>
-      <c r="BQ12">
-        <v>84.17112299465242</v>
-      </c>
-      <c r="BR12">
         <v>64.59893048128342</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:68">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E13">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>937500</v>
@@ -4513,36 +4435,30 @@
         <v>0</v>
       </c>
       <c r="BO13">
-        <v>111.6</v>
+        <v>68.55614973262033</v>
       </c>
       <c r="BP13">
-        <v>36.6</v>
-      </c>
-      <c r="BQ13">
-        <v>68.55614973262033</v>
-      </c>
-      <c r="BR13">
         <v>93.04812834224599</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:68">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E14">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G14">
         <v>800000</v>
@@ -4725,36 +4641,30 @@
         <v>0</v>
       </c>
       <c r="BO14">
-        <v>265.2</v>
+        <v>25.56149732620321</v>
       </c>
       <c r="BP14">
-        <v>224.8</v>
-      </c>
-      <c r="BQ14">
-        <v>25.56149732620321</v>
-      </c>
-      <c r="BR14">
         <v>39.35828877005348</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:68">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E15">
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G15">
         <v>1000000</v>
@@ -4937,36 +4847,30 @@
         <v>0</v>
       </c>
       <c r="BO15">
-        <v>156.8</v>
+        <v>53.68983957219252</v>
       </c>
       <c r="BP15">
-        <v>132.2</v>
-      </c>
-      <c r="BQ15">
-        <v>53.68983957219252</v>
-      </c>
-      <c r="BR15">
         <v>67.05882352941177</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:68">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E16">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16">
         <v>2100000</v>
@@ -5149,36 +5053,30 @@
         <v>0</v>
       </c>
       <c r="BO16">
-        <v>68.59999999999999</v>
+        <v>80.64171122994654</v>
       </c>
       <c r="BP16">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="BQ16">
-        <v>80.64171122994654</v>
-      </c>
-      <c r="BR16">
         <v>83.42245989304813</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:68">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E17">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G17">
         <v>200000</v>
@@ -5358,27 +5256,21 @@
         <v>0</v>
       </c>
       <c r="BO17">
-        <v>277.8</v>
+        <v>44.81283422459893</v>
       </c>
       <c r="BP17">
-        <v>237</v>
-      </c>
-      <c r="BQ17">
-        <v>44.81283422459893</v>
-      </c>
-      <c r="BR17">
         <v>36.25668449197861</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:68">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -5387,7 +5279,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G18">
         <v>845000</v>
@@ -5570,36 +5462,30 @@
         <v>0</v>
       </c>
       <c r="BO18">
-        <v>176</v>
+        <v>47.48663101604278</v>
       </c>
       <c r="BP18">
-        <v>267.2</v>
-      </c>
-      <c r="BQ18">
-        <v>47.48663101604278</v>
-      </c>
-      <c r="BR18">
         <v>26.20320855614973</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:68">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E19">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G19">
         <v>3200000</v>
@@ -5782,36 +5668,30 @@
         <v>0</v>
       </c>
       <c r="BO19">
-        <v>177.6</v>
+        <v>47.48663101604278</v>
       </c>
       <c r="BP19">
-        <v>294.2</v>
-      </c>
-      <c r="BQ19">
-        <v>47.48663101604278</v>
-      </c>
-      <c r="BR19">
         <v>19.25133689839572</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:68">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E20">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>3510000</v>
@@ -5994,36 +5874,30 @@
         <v>0</v>
       </c>
       <c r="BO20">
-        <v>136.2</v>
+        <v>59.67914438502674</v>
       </c>
       <c r="BP20">
-        <v>199.8</v>
-      </c>
-      <c r="BQ20">
-        <v>59.67914438502674</v>
-      </c>
-      <c r="BR20">
         <v>46.09625668449198</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:68">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E21">
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G21">
         <v>997000</v>
@@ -6206,36 +6080,30 @@
         <v>0</v>
       </c>
       <c r="BO21">
-        <v>110</v>
+        <v>65.77540106951871</v>
       </c>
       <c r="BP21">
-        <v>81</v>
-      </c>
-      <c r="BQ21">
-        <v>65.77540106951871</v>
-      </c>
-      <c r="BR21">
         <v>81.81818181818183</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:68">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E22">
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G22">
         <v>2500000</v>
@@ -6418,36 +6286,30 @@
         <v>0</v>
       </c>
       <c r="BO22">
-        <v>84</v>
+        <v>73.36898395721924</v>
       </c>
       <c r="BP22">
-        <v>104.4</v>
-      </c>
-      <c r="BQ22">
-        <v>73.36898395721924</v>
-      </c>
-      <c r="BR22">
         <v>75.29411764705884</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:68">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E23">
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G23">
         <v>700000</v>
@@ -6630,27 +6492,21 @@
         <v>0</v>
       </c>
       <c r="BO23">
-        <v>180.6</v>
+        <v>46.84491978609626</v>
       </c>
       <c r="BP23">
-        <v>241.4</v>
-      </c>
-      <c r="BQ23">
-        <v>46.84491978609626</v>
-      </c>
-      <c r="BR23">
         <v>31.97860962566845</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:68">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -6659,7 +6515,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G24">
         <v>1400000</v>
@@ -6842,36 +6698,30 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>233.6</v>
+        <v>30.26737967914438</v>
       </c>
       <c r="BP24">
-        <v>183.6</v>
-      </c>
-      <c r="BQ24">
-        <v>30.26737967914438</v>
-      </c>
-      <c r="BR24">
         <v>50.16042780748663</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:68">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E25">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>150000</v>
@@ -7054,36 +6904,30 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>147.8</v>
+        <v>56.68449197860963</v>
       </c>
       <c r="BP25">
-        <v>145.8</v>
-      </c>
-      <c r="BQ25">
-        <v>56.68449197860963</v>
-      </c>
-      <c r="BR25">
         <v>60.42780748663101</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:68">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E26">
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G26">
         <v>1635000</v>
@@ -7266,27 +7110,21 @@
         <v>0</v>
       </c>
       <c r="BO26">
-        <v>163.8</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="BP26">
-        <v>179.2</v>
-      </c>
-      <c r="BQ26">
-        <v>49.09090909090909</v>
-      </c>
-      <c r="BR26">
         <v>53.47593582887701</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:68">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -7295,7 +7133,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G27">
         <v>2100000</v>
@@ -7478,36 +7316,30 @@
         <v>0</v>
       </c>
       <c r="BO27">
-        <v>104.2</v>
+        <v>70.69518716577539</v>
       </c>
       <c r="BP27">
-        <v>171.2</v>
-      </c>
-      <c r="BQ27">
-        <v>70.69518716577539</v>
-      </c>
-      <c r="BR27">
         <v>53.15508021390375</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:68">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E28">
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G28">
         <v>650000</v>
@@ -7690,36 +7522,30 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>265</v>
+        <v>23.42245989304813</v>
       </c>
       <c r="BP28">
-        <v>219.4</v>
-      </c>
-      <c r="BQ28">
-        <v>23.42245989304813</v>
-      </c>
-      <c r="BR28">
         <v>42.99465240641712</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:68">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E29">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G29">
         <v>666600</v>
@@ -7902,36 +7728,30 @@
         <v>0</v>
       </c>
       <c r="BO29">
-        <v>183</v>
+        <v>44.38502673796791</v>
       </c>
       <c r="BP29">
-        <v>119.2</v>
-      </c>
-      <c r="BQ29">
-        <v>44.38502673796791</v>
-      </c>
-      <c r="BR29">
         <v>69.41176470588236</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:68">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G30">
         <v>845000</v>
@@ -8114,36 +7934,30 @@
         <v>0</v>
       </c>
       <c r="BO30">
-        <v>139.4</v>
+        <v>58.50267379679145</v>
       </c>
       <c r="BP30">
-        <v>114.4</v>
-      </c>
-      <c r="BQ30">
-        <v>58.50267379679145</v>
-      </c>
-      <c r="BR30">
         <v>71.76470588235293</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:68">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E31">
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G31">
         <v>1545000</v>
@@ -8326,36 +8140,30 @@
         <v>0</v>
       </c>
       <c r="BO31">
-        <v>237.4</v>
+        <v>30.6951871657754</v>
       </c>
       <c r="BP31">
-        <v>219.6</v>
-      </c>
-      <c r="BQ31">
-        <v>30.6951871657754</v>
-      </c>
-      <c r="BR31">
         <v>40.10695187165776</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:68">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E32">
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G32">
         <v>1750000</v>
@@ -8538,27 +8346,21 @@
         <v>0</v>
       </c>
       <c r="BO32">
-        <v>100.4</v>
+        <v>72.08556149732621</v>
       </c>
       <c r="BP32">
-        <v>64</v>
-      </c>
-      <c r="BQ32">
-        <v>72.08556149732621</v>
-      </c>
-      <c r="BR32">
         <v>86.20320855614972</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:68">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -8567,7 +8369,7 @@
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G33">
         <v>1700000</v>
@@ -8750,27 +8552,21 @@
         <v>0</v>
       </c>
       <c r="BO33">
-        <v>223</v>
+        <v>32.19251336898396</v>
       </c>
       <c r="BP33">
-        <v>193</v>
-      </c>
-      <c r="BQ33">
-        <v>32.19251336898396</v>
-      </c>
-      <c r="BR33">
         <v>44.1711229946524</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:68">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -8779,7 +8575,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G34">
         <v>126300</v>
@@ -8962,36 +8758,30 @@
         <v>0</v>
       </c>
       <c r="BO34">
-        <v>188.6</v>
+        <v>42.88770053475936</v>
       </c>
       <c r="BP34">
-        <v>259.4</v>
-      </c>
-      <c r="BQ34">
-        <v>42.88770053475936</v>
-      </c>
-      <c r="BR34">
         <v>26.63101604278075</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:68">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E35">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G35">
         <v>902000</v>
@@ -9174,36 +8964,30 @@
         <v>0</v>
       </c>
       <c r="BO35">
-        <v>122.8</v>
+        <v>63.31550802139038</v>
       </c>
       <c r="BP35">
-        <v>245.6</v>
-      </c>
-      <c r="BQ35">
-        <v>63.31550802139038</v>
-      </c>
-      <c r="BR35">
         <v>30.58823529411765</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:68">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E36">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G36">
         <v>150000</v>
@@ -9386,36 +9170,30 @@
         <v>0</v>
       </c>
       <c r="BO36">
-        <v>273.6</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="BP36">
-        <v>271.8</v>
-      </c>
-      <c r="BQ36">
-        <v>23.63636363636364</v>
-      </c>
-      <c r="BR36">
         <v>24.59893048128342</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:68">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E37">
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G37">
         <v>182500</v>
@@ -9598,36 +9376,30 @@
         <v>0</v>
       </c>
       <c r="BO37">
-        <v>183</v>
+        <v>45.98930481283423</v>
       </c>
       <c r="BP37">
-        <v>188</v>
-      </c>
-      <c r="BQ37">
-        <v>45.98930481283423</v>
-      </c>
-      <c r="BR37">
         <v>47.27272727272728</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:68">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E38">
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G38">
         <v>1600000</v>
@@ -9810,36 +9582,30 @@
         <v>0</v>
       </c>
       <c r="BO38">
-        <v>204</v>
+        <v>37.54010695187166</v>
       </c>
       <c r="BP38">
-        <v>261</v>
-      </c>
-      <c r="BQ38">
-        <v>37.54010695187166</v>
-      </c>
-      <c r="BR38">
         <v>28.66310160427808</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:68">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E39">
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G39">
         <v>250000</v>
@@ -10022,27 +9788,21 @@
         <v>0</v>
       </c>
       <c r="BO39">
-        <v>257</v>
+        <v>27.37967914438503</v>
       </c>
       <c r="BP39">
-        <v>225</v>
-      </c>
-      <c r="BQ39">
-        <v>27.37967914438503</v>
-      </c>
-      <c r="BR39">
         <v>37.4331550802139</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:68">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -10051,7 +9811,7 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G40">
         <v>2406600</v>
@@ -10231,27 +9991,21 @@
         <v>0</v>
       </c>
       <c r="BO40">
-        <v>274.2</v>
+        <v>41.06951871657754</v>
       </c>
       <c r="BP40">
-        <v>226</v>
-      </c>
-      <c r="BQ40">
-        <v>41.06951871657754</v>
-      </c>
-      <c r="BR40">
         <v>38.8235294117647</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:68">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
@@ -10260,7 +10014,7 @@
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G41">
         <v>702000</v>
@@ -10440,36 +10194,30 @@
         <v>0</v>
       </c>
       <c r="BO41">
-        <v>289.2</v>
+        <v>36.14973262032085</v>
       </c>
       <c r="BP41">
-        <v>329</v>
-      </c>
-      <c r="BQ41">
-        <v>36.14973262032085</v>
-      </c>
-      <c r="BR41">
         <v>11.55080213903743</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:68">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D42" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E42">
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G42">
         <v>940000</v>
@@ -10652,27 +10400,21 @@
         <v>0</v>
       </c>
       <c r="BO42">
-        <v>239.4</v>
+        <v>31.01604278074867</v>
       </c>
       <c r="BP42">
-        <v>99.8</v>
-      </c>
-      <c r="BQ42">
-        <v>31.01604278074867</v>
-      </c>
-      <c r="BR42">
         <v>75.08021390374331</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:68">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
         <v>29</v>
@@ -10681,7 +10423,7 @@
         <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G43">
         <v>1560000</v>
@@ -10864,36 +10606,30 @@
         <v>0</v>
       </c>
       <c r="BO43">
-        <v>301.2</v>
+        <v>15.72192513368984</v>
       </c>
       <c r="BP43">
-        <v>343</v>
-      </c>
-      <c r="BQ43">
-        <v>15.72192513368984</v>
-      </c>
-      <c r="BR43">
         <v>8.663101604278074</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:68">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D44" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E44">
         <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G44">
         <v>150000</v>
@@ -11076,36 +10812,30 @@
         <v>0</v>
       </c>
       <c r="BO44">
-        <v>185.8</v>
+        <v>42.99465240641712</v>
       </c>
       <c r="BP44">
-        <v>268.2</v>
-      </c>
-      <c r="BQ44">
-        <v>42.99465240641712</v>
-      </c>
-      <c r="BR44">
         <v>28.55614973262032</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:68">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E45">
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G45">
         <v>2120000</v>
@@ -11288,36 +11018,30 @@
         <v>0</v>
       </c>
       <c r="BO45">
-        <v>95.2</v>
+        <v>72.19251336898395</v>
       </c>
       <c r="BP45">
-        <v>138.8</v>
-      </c>
-      <c r="BQ45">
-        <v>72.19251336898395</v>
-      </c>
-      <c r="BR45">
         <v>64.17112299465241</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:68">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E46">
         <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G46">
         <v>1365000</v>
@@ -11500,36 +11224,30 @@
         <v>0</v>
       </c>
       <c r="BO46">
-        <v>204.2</v>
+        <v>38.93048128342246</v>
       </c>
       <c r="BP46">
-        <v>264.6</v>
-      </c>
-      <c r="BQ46">
-        <v>38.93048128342246</v>
-      </c>
-      <c r="BR46">
         <v>30.6951871657754</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:68">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E47">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G47">
         <v>1471000</v>
@@ -11712,36 +11430,30 @@
         <v>0</v>
       </c>
       <c r="BO47">
-        <v>152</v>
+        <v>53.79679144385027</v>
       </c>
       <c r="BP47">
-        <v>138.8</v>
-      </c>
-      <c r="BQ47">
-        <v>53.79679144385027</v>
-      </c>
-      <c r="BR47">
         <v>66.20320855614973</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:68">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D48" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E48">
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G48">
         <v>2000000</v>
@@ -11921,36 +11633,30 @@
         <v>0</v>
       </c>
       <c r="BO48">
-        <v>236.2</v>
+        <v>49.94652406417113</v>
       </c>
       <c r="BP48">
-        <v>147.4</v>
-      </c>
-      <c r="BQ48">
-        <v>49.94652406417113</v>
-      </c>
-      <c r="BR48">
         <v>59.46524064171123</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:68">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E49">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G49">
         <v>3333300</v>
@@ -12133,36 +11839,30 @@
         <v>0</v>
       </c>
       <c r="BO49">
-        <v>34.2</v>
+        <v>89.41176470588235</v>
       </c>
       <c r="BP49">
-        <v>58.2</v>
-      </c>
-      <c r="BQ49">
-        <v>89.41176470588235</v>
-      </c>
-      <c r="BR49">
         <v>87.70053475935828</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:68">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E50">
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G50">
         <v>2731000</v>
@@ -12345,36 +12045,30 @@
         <v>0</v>
       </c>
       <c r="BO50">
-        <v>144.8</v>
+        <v>58.07486631016042</v>
       </c>
       <c r="BP50">
-        <v>121.8</v>
-      </c>
-      <c r="BQ50">
-        <v>58.07486631016042</v>
-      </c>
-      <c r="BR50">
         <v>68.1283422459893</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:68">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E51">
         <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G51">
         <v>3500000</v>
@@ -12557,36 +12251,30 @@
         <v>0</v>
       </c>
       <c r="BO51">
-        <v>169.2</v>
+        <v>47.27272727272728</v>
       </c>
       <c r="BP51">
-        <v>277.8</v>
-      </c>
-      <c r="BQ51">
-        <v>47.27272727272728</v>
-      </c>
-      <c r="BR51">
         <v>23.85026737967915</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:68">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E52">
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G52">
         <v>700000</v>
@@ -12769,36 +12457,30 @@
         <v>0</v>
       </c>
       <c r="BO52">
-        <v>290.2</v>
+        <v>13.47593582887701</v>
       </c>
       <c r="BP52">
-        <v>304.2</v>
-      </c>
-      <c r="BQ52">
-        <v>13.47593582887701</v>
-      </c>
-      <c r="BR52">
         <v>21.28342245989305</v>
       </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:68">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D53" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E53">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G53">
         <v>150000</v>
@@ -12981,36 +12663,30 @@
         <v>0</v>
       </c>
       <c r="BO53">
-        <v>267.6</v>
+        <v>23.74331550802139</v>
       </c>
       <c r="BP53">
-        <v>250.6</v>
-      </c>
-      <c r="BQ53">
-        <v>23.74331550802139</v>
-      </c>
-      <c r="BR53">
         <v>32.51336898395722</v>
       </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:68">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E54">
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G54">
         <v>2650000</v>
@@ -13193,36 +12869,30 @@
         <v>0</v>
       </c>
       <c r="BO54">
-        <v>173.2</v>
+        <v>47.16577540106952</v>
       </c>
       <c r="BP54">
-        <v>172</v>
-      </c>
-      <c r="BQ54">
-        <v>47.16577540106952</v>
-      </c>
-      <c r="BR54">
         <v>52.51336898395722</v>
       </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:68">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D55" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E55">
         <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G55">
         <v>1450000</v>
@@ -13405,36 +13075,30 @@
         <v>0</v>
       </c>
       <c r="BO55">
-        <v>189</v>
+        <v>41.28342245989305</v>
       </c>
       <c r="BP55">
-        <v>140</v>
-      </c>
-      <c r="BQ55">
-        <v>41.28342245989305</v>
-      </c>
-      <c r="BR55">
         <v>64.81283422459893</v>
       </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:68">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E56">
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G56">
         <v>1350000</v>
@@ -13617,36 +13281,30 @@
         <v>0</v>
       </c>
       <c r="BO56">
-        <v>99.40000000000001</v>
+        <v>69.83957219251337</v>
       </c>
       <c r="BP56">
-        <v>69</v>
-      </c>
-      <c r="BQ56">
-        <v>69.83957219251337</v>
-      </c>
-      <c r="BR56">
         <v>85.66844919786095</v>
       </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:68">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E57">
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G57">
         <v>1007500</v>
@@ -13829,36 +13487,30 @@
         <v>0</v>
       </c>
       <c r="BO57">
-        <v>229.4</v>
+        <v>30.58823529411765</v>
       </c>
       <c r="BP57">
-        <v>208.4</v>
-      </c>
-      <c r="BQ57">
-        <v>30.58823529411765</v>
-      </c>
-      <c r="BR57">
         <v>44.38502673796791</v>
       </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:68">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E58">
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G58">
         <v>1100000</v>
@@ -14041,27 +13693,21 @@
         <v>0</v>
       </c>
       <c r="BO58">
-        <v>179.6</v>
+        <v>44.38502673796791</v>
       </c>
       <c r="BP58">
-        <v>205.4</v>
-      </c>
-      <c r="BQ58">
-        <v>44.38502673796791</v>
-      </c>
-      <c r="BR58">
         <v>42.7807486631016</v>
       </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:68">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
         <v>29</v>
@@ -14070,7 +13716,7 @@
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G59">
         <v>4042000</v>
@@ -14253,36 +13899,30 @@
         <v>0</v>
       </c>
       <c r="BO59">
-        <v>238</v>
+        <v>30.6951871657754</v>
       </c>
       <c r="BP59">
-        <v>87.2</v>
-      </c>
-      <c r="BQ59">
-        <v>30.6951871657754</v>
-      </c>
-      <c r="BR59">
         <v>80.32085561497325</v>
       </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:68">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E60">
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G60">
         <v>150000</v>
@@ -14465,36 +14105,30 @@
         <v>0</v>
       </c>
       <c r="BO60">
-        <v>220.8</v>
+        <v>34.4385026737968</v>
       </c>
       <c r="BP60">
-        <v>286.8</v>
-      </c>
-      <c r="BQ60">
-        <v>34.4385026737968</v>
-      </c>
-      <c r="BR60">
         <v>22.45989304812834</v>
       </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:68">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E61">
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G61">
         <v>1750000</v>
@@ -14677,36 +14311,30 @@
         <v>0</v>
       </c>
       <c r="BO61">
-        <v>139.8</v>
+        <v>56.68449197860963</v>
       </c>
       <c r="BP61">
-        <v>91</v>
-      </c>
-      <c r="BQ61">
-        <v>56.68449197860963</v>
-      </c>
-      <c r="BR61">
         <v>78.82352941176471</v>
       </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:68">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E62">
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G62">
         <v>650000</v>
@@ -14889,27 +14517,21 @@
         <v>0</v>
       </c>
       <c r="BO62">
-        <v>230.4</v>
+        <v>31.87165775401069</v>
       </c>
       <c r="BP62">
-        <v>109</v>
-      </c>
-      <c r="BQ62">
-        <v>31.87165775401069</v>
-      </c>
-      <c r="BR62">
         <v>72.51336898395722</v>
       </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:68">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -14918,7 +14540,7 @@
         <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G63">
         <v>1330000</v>
@@ -15101,36 +14723,30 @@
         <v>0</v>
       </c>
       <c r="BO63">
-        <v>122.2</v>
+        <v>63.42245989304812</v>
       </c>
       <c r="BP63">
-        <v>74</v>
-      </c>
-      <c r="BQ63">
-        <v>63.42245989304812</v>
-      </c>
-      <c r="BR63">
         <v>82.45989304812834</v>
       </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:68">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D64" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E64">
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G64">
         <v>1402000</v>
@@ -15313,36 +14929,30 @@
         <v>0</v>
       </c>
       <c r="BO64">
-        <v>167.8</v>
+        <v>50.05347593582887</v>
       </c>
       <c r="BP64">
-        <v>197.2</v>
-      </c>
-      <c r="BQ64">
-        <v>50.05347593582887</v>
-      </c>
-      <c r="BR64">
         <v>44.49197860962567</v>
       </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:68">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E65">
         <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G65">
         <v>910000</v>
@@ -15525,27 +15135,21 @@
         <v>0</v>
       </c>
       <c r="BO65">
-        <v>256.8</v>
+        <v>23.20855614973262</v>
       </c>
       <c r="BP65">
-        <v>316.4</v>
-      </c>
-      <c r="BQ65">
-        <v>23.20855614973262</v>
-      </c>
-      <c r="BR65">
         <v>16.79144385026738</v>
       </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:68">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -15554,7 +15158,7 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G66">
         <v>808000</v>
@@ -15737,36 +15341,30 @@
         <v>0</v>
       </c>
       <c r="BO66">
-        <v>119.4</v>
+        <v>64.49197860962566</v>
       </c>
       <c r="BP66">
-        <v>109.4</v>
-      </c>
-      <c r="BQ66">
-        <v>64.49197860962566</v>
-      </c>
-      <c r="BR66">
         <v>72.94117647058825</v>
       </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:68">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E67">
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G67">
         <v>1100000</v>
@@ -15949,27 +15547,21 @@
         <v>0</v>
       </c>
       <c r="BO67">
-        <v>208.4</v>
+        <v>36.14973262032085</v>
       </c>
       <c r="BP67">
-        <v>186.8</v>
-      </c>
-      <c r="BQ67">
-        <v>36.14973262032085</v>
-      </c>
-      <c r="BR67">
         <v>49.62566844919786</v>
       </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:68">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -15978,7 +15570,7 @@
         <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G68">
         <v>2990000</v>
@@ -16161,36 +15753,30 @@
         <v>0</v>
       </c>
       <c r="BO68">
-        <v>157.6</v>
+        <v>53.68983957219252</v>
       </c>
       <c r="BP68">
-        <v>194</v>
-      </c>
-      <c r="BQ68">
-        <v>53.68983957219252</v>
-      </c>
-      <c r="BR68">
         <v>47.48663101604278</v>
       </c>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:68">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D69" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E69">
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G69">
         <v>6472600</v>
@@ -16373,27 +15959,21 @@
         <v>0</v>
       </c>
       <c r="BO69">
-        <v>136.4</v>
+        <v>62.35294117647059</v>
       </c>
       <c r="BP69">
-        <v>139.2</v>
-      </c>
-      <c r="BQ69">
-        <v>62.35294117647059</v>
-      </c>
-      <c r="BR69">
         <v>66.09625668449198</v>
       </c>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:68">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -16402,7 +15982,7 @@
         <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G70">
         <v>700000</v>
@@ -16585,36 +16165,30 @@
         <v>0</v>
       </c>
       <c r="BO70">
-        <v>262.8</v>
+        <v>23.10160427807487</v>
       </c>
       <c r="BP70">
-        <v>157.2</v>
-      </c>
-      <c r="BQ70">
-        <v>23.10160427807487</v>
-      </c>
-      <c r="BR70">
         <v>61.92513368983958</v>
       </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:68">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D71" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E71">
         <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G71">
         <v>3703000</v>
@@ -16797,36 +16371,30 @@
         <v>0</v>
       </c>
       <c r="BO71">
-        <v>95.40000000000001</v>
+        <v>69.73262032085562</v>
       </c>
       <c r="BP71">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="BQ71">
-        <v>69.73262032085562</v>
-      </c>
-      <c r="BR71">
         <v>80.53475935828877</v>
       </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:68">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E72">
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G72">
         <v>2382700</v>
@@ -17009,36 +16577,30 @@
         <v>0</v>
       </c>
       <c r="BO72">
-        <v>150.8</v>
+        <v>54.01069518716578</v>
       </c>
       <c r="BP72">
-        <v>174</v>
-      </c>
-      <c r="BQ72">
-        <v>54.01069518716578</v>
-      </c>
-      <c r="BR72">
         <v>53.15508021390375</v>
       </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:68">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D73" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E73">
         <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G73">
         <v>455000</v>
@@ -17221,27 +16783,21 @@
         <v>0</v>
       </c>
       <c r="BO73">
-        <v>189.6</v>
+        <v>43.42245989304813</v>
       </c>
       <c r="BP73">
-        <v>139.6</v>
-      </c>
-      <c r="BQ73">
-        <v>43.42245989304813</v>
-      </c>
-      <c r="BR73">
         <v>63.85026737967915</v>
       </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:68">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -17250,7 +16806,7 @@
         <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G74">
         <v>1350000</v>
@@ -17433,36 +16989,30 @@
         <v>0</v>
       </c>
       <c r="BO74">
-        <v>171.2</v>
+        <v>47.70053475935829</v>
       </c>
       <c r="BP74">
-        <v>243.4</v>
-      </c>
-      <c r="BQ74">
-        <v>47.70053475935829</v>
-      </c>
-      <c r="BR74">
         <v>31.87165775401069</v>
       </c>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:68">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E75">
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G75">
         <v>2820000</v>
@@ -17645,36 +17195,30 @@
         <v>0</v>
       </c>
       <c r="BO75">
-        <v>123.6</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="BP75">
-        <v>111</v>
-      </c>
-      <c r="BQ75">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="BR75">
         <v>71.8716577540107</v>
       </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:68">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D76" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E76">
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G76">
         <v>1005000</v>
@@ -17857,36 +17401,30 @@
         <v>0</v>
       </c>
       <c r="BO76">
-        <v>265.6</v>
+        <v>22.99465240641711</v>
       </c>
       <c r="BP76">
-        <v>330.8</v>
-      </c>
-      <c r="BQ76">
-        <v>22.99465240641711</v>
-      </c>
-      <c r="BR76">
         <v>12.29946524064171</v>
       </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:68">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D77" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E77">
         <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G77">
         <v>2121400</v>
@@ -18069,27 +17607,21 @@
         <v>0</v>
       </c>
       <c r="BO77">
-        <v>115.2</v>
+        <v>65.98930481283422</v>
       </c>
       <c r="BP77">
-        <v>46</v>
-      </c>
-      <c r="BQ77">
-        <v>65.98930481283422</v>
-      </c>
-      <c r="BR77">
         <v>90.4812834224599</v>
       </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:68">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
@@ -18098,7 +17630,7 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G78">
         <v>1499000</v>
@@ -18281,36 +17813,30 @@
         <v>0</v>
       </c>
       <c r="BO78">
-        <v>71.40000000000001</v>
+        <v>76.89839572192514</v>
       </c>
       <c r="BP78">
-        <v>167.6</v>
-      </c>
-      <c r="BQ78">
-        <v>76.89839572192514</v>
-      </c>
-      <c r="BR78">
         <v>56.36363636363637</v>
       </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:68">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D79" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E79">
         <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G79">
         <v>956000</v>
@@ -18493,36 +18019,30 @@
         <v>0</v>
       </c>
       <c r="BO79">
-        <v>165.8</v>
+        <v>49.94652406417113</v>
       </c>
       <c r="BP79">
-        <v>101.6</v>
-      </c>
-      <c r="BQ79">
-        <v>49.94652406417113</v>
-      </c>
-      <c r="BR79">
         <v>74.11764705882352</v>
       </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:68">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G80">
         <v>1173000</v>
@@ -18705,36 +18225,30 @@
         <v>0</v>
       </c>
       <c r="BO80">
-        <v>161.6</v>
+        <v>50.80213903743316</v>
       </c>
       <c r="BP80">
-        <v>311.4</v>
-      </c>
-      <c r="BQ80">
-        <v>50.80213903743316</v>
-      </c>
-      <c r="BR80">
         <v>17.96791443850267</v>
       </c>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:68">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D81" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E81">
         <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G81">
         <v>2100000</v>
@@ -18917,36 +18431,30 @@
         <v>0</v>
       </c>
       <c r="BO81">
-        <v>264.8</v>
+        <v>22.45989304812834</v>
       </c>
       <c r="BP81">
-        <v>350.6</v>
-      </c>
-      <c r="BQ81">
-        <v>22.45989304812834</v>
-      </c>
-      <c r="BR81">
         <v>8.770053475935828</v>
       </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:68">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E82">
         <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G82">
         <v>140350</v>
@@ -19129,36 +18637,30 @@
         <v>0</v>
       </c>
       <c r="BO82">
-        <v>269</v>
+        <v>19.78609625668449</v>
       </c>
       <c r="BP82">
-        <v>327.4</v>
-      </c>
-      <c r="BQ82">
-        <v>19.78609625668449</v>
-      </c>
-      <c r="BR82">
         <v>12.51336898395722</v>
       </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:68">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E83">
         <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G83">
         <v>2700000</v>
@@ -19341,36 +18843,30 @@
         <v>0</v>
       </c>
       <c r="BO83">
-        <v>130.4</v>
+        <v>61.60427807486631</v>
       </c>
       <c r="BP83">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="BQ83">
-        <v>61.60427807486631</v>
-      </c>
-      <c r="BR83">
         <v>80.64171122994654</v>
       </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:68">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D84" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E84">
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G84">
         <v>350000</v>
@@ -19553,36 +19049,30 @@
         <v>0</v>
       </c>
       <c r="BO84">
-        <v>180.4</v>
+        <v>45.56149732620321</v>
       </c>
       <c r="BP84">
-        <v>144.4</v>
-      </c>
-      <c r="BQ84">
-        <v>45.56149732620321</v>
-      </c>
-      <c r="BR84">
         <v>63.31550802139038</v>
       </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:68">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E85">
         <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G85">
         <v>650000</v>
@@ -19765,36 +19255,30 @@
         <v>0</v>
       </c>
       <c r="BO85">
-        <v>120.6</v>
+        <v>64.06417112299465</v>
       </c>
       <c r="BP85">
-        <v>123.2</v>
-      </c>
-      <c r="BQ85">
-        <v>64.06417112299465</v>
-      </c>
-      <c r="BR85">
         <v>70.4812834224599</v>
       </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:68">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D86" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E86">
         <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G86">
         <v>2750000</v>
@@ -19977,36 +19461,30 @@
         <v>0</v>
       </c>
       <c r="BO86">
-        <v>106.8</v>
+        <v>67.59358288770055</v>
       </c>
       <c r="BP86">
-        <v>64</v>
-      </c>
-      <c r="BQ86">
-        <v>67.59358288770055</v>
-      </c>
-      <c r="BR86">
         <v>84.81283422459893</v>
       </c>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:68">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D87" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E87">
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G87">
         <v>1300000</v>
@@ -20189,27 +19667,21 @@
         <v>0</v>
       </c>
       <c r="BO87">
-        <v>86.2</v>
+        <v>73.79679144385027</v>
       </c>
       <c r="BP87">
-        <v>110.6</v>
-      </c>
-      <c r="BQ87">
-        <v>73.79679144385027</v>
-      </c>
-      <c r="BR87">
         <v>73.475935828877</v>
       </c>
     </row>
-    <row r="88" spans="1:70">
+    <row r="88" spans="1:68">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
@@ -20218,7 +19690,7 @@
         <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G88">
         <v>769000</v>
@@ -20401,36 +19873,30 @@
         <v>0</v>
       </c>
       <c r="BO88">
-        <v>153</v>
+        <v>56.14973262032086</v>
       </c>
       <c r="BP88">
-        <v>226</v>
-      </c>
-      <c r="BQ88">
-        <v>56.14973262032086</v>
-      </c>
-      <c r="BR88">
         <v>36.89839572192513</v>
       </c>
     </row>
-    <row r="89" spans="1:70">
+    <row r="89" spans="1:68">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E89">
         <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G89">
         <v>1500000</v>
@@ -20610,36 +20076,30 @@
         <v>0</v>
       </c>
       <c r="BO89">
-        <v>286.4</v>
+        <v>38.39572192513369</v>
       </c>
       <c r="BP89">
-        <v>122.4</v>
-      </c>
-      <c r="BQ89">
-        <v>38.39572192513369</v>
-      </c>
-      <c r="BR89">
         <v>71.01604278074866</v>
       </c>
     </row>
-    <row r="90" spans="1:70">
+    <row r="90" spans="1:68">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D90" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E90">
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G90">
         <v>3608000</v>
@@ -20822,36 +20282,30 @@
         <v>0</v>
       </c>
       <c r="BO90">
-        <v>148.4</v>
+        <v>54.11764705882353</v>
       </c>
       <c r="BP90">
-        <v>175</v>
-      </c>
-      <c r="BQ90">
-        <v>54.11764705882353</v>
-      </c>
-      <c r="BR90">
         <v>53.68983957219252</v>
       </c>
     </row>
-    <row r="91" spans="1:70">
+    <row r="91" spans="1:68">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D91" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E91">
         <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G91">
         <v>845000</v>
@@ -21034,36 +20488,30 @@
         <v>0</v>
       </c>
       <c r="BO91">
-        <v>269.6</v>
+        <v>22.5668449197861</v>
       </c>
       <c r="BP91">
-        <v>316.2</v>
-      </c>
-      <c r="BQ91">
-        <v>22.5668449197861</v>
-      </c>
-      <c r="BR91">
         <v>15.50802139037433</v>
       </c>
     </row>
-    <row r="92" spans="1:70">
+    <row r="92" spans="1:68">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E92">
         <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G92">
         <v>2600000</v>
@@ -21246,36 +20694,30 @@
         <v>0</v>
       </c>
       <c r="BO92">
-        <v>210.4</v>
+        <v>36.14973262032085</v>
       </c>
       <c r="BP92">
-        <v>285.8</v>
-      </c>
-      <c r="BQ92">
-        <v>36.14973262032085</v>
-      </c>
-      <c r="BR92">
         <v>21.06951871657754</v>
       </c>
     </row>
-    <row r="93" spans="1:70">
+    <row r="93" spans="1:68">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D93" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E93">
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G93">
         <v>1596000</v>
@@ -21458,36 +20900,30 @@
         <v>0</v>
       </c>
       <c r="BO93">
-        <v>149</v>
+        <v>54.97326203208556</v>
       </c>
       <c r="BP93">
-        <v>199</v>
-      </c>
-      <c r="BQ93">
-        <v>54.97326203208556</v>
-      </c>
-      <c r="BR93">
         <v>45.13368983957219</v>
       </c>
     </row>
-    <row r="94" spans="1:70">
+    <row r="94" spans="1:68">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D94" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E94">
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G94">
         <v>350000</v>
@@ -21670,36 +21106,30 @@
         <v>0</v>
       </c>
       <c r="BO94">
-        <v>263.4</v>
+        <v>22.24598930481283</v>
       </c>
       <c r="BP94">
-        <v>241</v>
-      </c>
-      <c r="BQ94">
-        <v>22.24598930481283</v>
-      </c>
-      <c r="BR94">
         <v>36.04278074866311</v>
       </c>
     </row>
-    <row r="95" spans="1:70">
+    <row r="95" spans="1:68">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E95">
         <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G95">
         <v>150000</v>
@@ -21882,27 +21312,21 @@
         <v>0</v>
       </c>
       <c r="BO95">
-        <v>238</v>
+        <v>31.22994652406417</v>
       </c>
       <c r="BP95">
-        <v>314.4</v>
-      </c>
-      <c r="BQ95">
-        <v>31.22994652406417</v>
-      </c>
-      <c r="BR95">
         <v>15.18716577540107</v>
       </c>
     </row>
-    <row r="96" spans="1:70">
+    <row r="96" spans="1:68">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
         <v>29</v>
@@ -21911,7 +21335,7 @@
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G96">
         <v>325000</v>
@@ -22094,36 +21518,30 @@
         <v>0</v>
       </c>
       <c r="BO96">
-        <v>253.6</v>
+        <v>22.45989304812834</v>
       </c>
       <c r="BP96">
-        <v>186.8</v>
-      </c>
-      <c r="BQ96">
-        <v>22.45989304812834</v>
-      </c>
-      <c r="BR96">
         <v>48.66310160427808</v>
       </c>
     </row>
-    <row r="97" spans="1:70">
+    <row r="97" spans="1:68">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E97">
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G97">
         <v>1430000</v>
@@ -22306,36 +21724,30 @@
         <v>0</v>
       </c>
       <c r="BO97">
-        <v>190.8</v>
+        <v>43.74331550802139</v>
       </c>
       <c r="BP97">
-        <v>253.6</v>
-      </c>
-      <c r="BQ97">
-        <v>43.74331550802139</v>
-      </c>
-      <c r="BR97">
         <v>31.33689839572192</v>
       </c>
     </row>
-    <row r="98" spans="1:70">
+    <row r="98" spans="1:68">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D98" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E98">
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G98">
         <v>1767000</v>
@@ -22518,36 +21930,30 @@
         <v>0</v>
       </c>
       <c r="BO98">
-        <v>241.4</v>
+        <v>29.83957219251337</v>
       </c>
       <c r="BP98">
-        <v>254.6</v>
-      </c>
-      <c r="BQ98">
-        <v>29.83957219251337</v>
-      </c>
-      <c r="BR98">
         <v>29.09090909090909</v>
       </c>
     </row>
-    <row r="99" spans="1:70">
+    <row r="99" spans="1:68">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E99">
         <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G99">
         <v>3000000</v>
@@ -22730,36 +22136,30 @@
         <v>0</v>
       </c>
       <c r="BO99">
-        <v>80.40000000000001</v>
+        <v>75.40106951871658</v>
       </c>
       <c r="BP99">
-        <v>120.4</v>
-      </c>
-      <c r="BQ99">
-        <v>75.40106951871658</v>
-      </c>
-      <c r="BR99">
         <v>72.29946524064171</v>
       </c>
     </row>
-    <row r="100" spans="1:70">
+    <row r="100" spans="1:68">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D100" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E100">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G100">
         <v>1930000</v>
@@ -22942,27 +22342,21 @@
         <v>0</v>
       </c>
       <c r="BO100">
-        <v>188</v>
+        <v>48.34224598930481</v>
       </c>
       <c r="BP100">
-        <v>146.8</v>
-      </c>
-      <c r="BQ100">
-        <v>48.34224598930481</v>
-      </c>
-      <c r="BR100">
         <v>63.63636363636363</v>
       </c>
     </row>
-    <row r="101" spans="1:70">
+    <row r="101" spans="1:68">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D101" t="s">
         <v>29</v>
@@ -22971,7 +22365,7 @@
         <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G101">
         <v>1000000</v>
@@ -23154,36 +22548,30 @@
         <v>0</v>
       </c>
       <c r="BO101">
-        <v>65.40000000000001</v>
+        <v>79.67914438502673</v>
       </c>
       <c r="BP101">
-        <v>71.2</v>
-      </c>
-      <c r="BQ101">
-        <v>79.67914438502673</v>
-      </c>
-      <c r="BR101">
         <v>84.70588235294117</v>
       </c>
     </row>
-    <row r="102" spans="1:70">
+    <row r="102" spans="1:68">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E102">
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G102">
         <v>250000</v>
@@ -23360,36 +22748,30 @@
         <v>0</v>
       </c>
       <c r="BO102">
-        <v>283.4</v>
+        <v>45.56149732620321</v>
       </c>
       <c r="BP102">
-        <v>350.8</v>
-      </c>
-      <c r="BQ102">
-        <v>45.56149732620321</v>
-      </c>
-      <c r="BR102">
         <v>10.05347593582888</v>
       </c>
     </row>
-    <row r="103" spans="1:70">
+    <row r="103" spans="1:68">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E103">
         <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G103">
         <v>2633300</v>
@@ -23572,27 +22954,21 @@
         <v>0</v>
       </c>
       <c r="BO103">
-        <v>126.6</v>
+        <v>64.27807486631016</v>
       </c>
       <c r="BP103">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="BQ103">
-        <v>64.27807486631016</v>
-      </c>
-      <c r="BR103">
         <v>74.75935828877006</v>
       </c>
     </row>
-    <row r="104" spans="1:70">
+    <row r="104" spans="1:68">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
@@ -23601,7 +22977,7 @@
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G104">
         <v>1200000</v>
@@ -23784,36 +23160,30 @@
         <v>0</v>
       </c>
       <c r="BO104">
-        <v>108</v>
+        <v>65.98930481283422</v>
       </c>
       <c r="BP104">
-        <v>116.2</v>
-      </c>
-      <c r="BQ104">
-        <v>65.98930481283422</v>
-      </c>
-      <c r="BR104">
         <v>73.475935828877</v>
       </c>
     </row>
-    <row r="105" spans="1:70">
+    <row r="105" spans="1:68">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D105" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E105">
         <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G105">
         <v>422500</v>
@@ -23996,36 +23366,30 @@
         <v>0</v>
       </c>
       <c r="BO105">
-        <v>154</v>
+        <v>51.76470588235293</v>
       </c>
       <c r="BP105">
-        <v>285.6</v>
-      </c>
-      <c r="BQ105">
-        <v>51.76470588235293</v>
-      </c>
-      <c r="BR105">
         <v>23.42245989304813</v>
       </c>
     </row>
-    <row r="106" spans="1:70">
+    <row r="106" spans="1:68">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E106">
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G106">
         <v>1833000</v>
@@ -24208,36 +23572,30 @@
         <v>0</v>
       </c>
       <c r="BO106">
-        <v>134.2</v>
+        <v>61.3903743315508</v>
       </c>
       <c r="BP106">
-        <v>223.2</v>
-      </c>
-      <c r="BQ106">
-        <v>61.3903743315508</v>
-      </c>
-      <c r="BR106">
         <v>37.21925133689839</v>
       </c>
     </row>
-    <row r="107" spans="1:70">
+    <row r="107" spans="1:68">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E107">
         <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G107">
         <v>820000</v>
@@ -24420,36 +23778,30 @@
         <v>0</v>
       </c>
       <c r="BO107">
-        <v>234.4</v>
+        <v>28.87700534759358</v>
       </c>
       <c r="BP107">
-        <v>314.6</v>
-      </c>
-      <c r="BQ107">
-        <v>28.87700534759358</v>
-      </c>
-      <c r="BR107">
         <v>16.25668449197861</v>
       </c>
     </row>
-    <row r="108" spans="1:70">
+    <row r="108" spans="1:68">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E108">
         <v>31</v>
       </c>
       <c r="F108" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G108">
         <v>2640000</v>
@@ -24632,36 +23984,30 @@
         <v>0</v>
       </c>
       <c r="BO108">
-        <v>177.8</v>
+        <v>44.91978609625669</v>
       </c>
       <c r="BP108">
-        <v>251.8</v>
-      </c>
-      <c r="BQ108">
-        <v>44.91978609625669</v>
-      </c>
-      <c r="BR108">
         <v>32.0855614973262</v>
       </c>
     </row>
-    <row r="109" spans="1:70">
+    <row r="109" spans="1:68">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D109" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E109">
         <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G109">
         <v>650000</v>
@@ -24844,27 +24190,21 @@
         <v>0</v>
       </c>
       <c r="BO109">
-        <v>169</v>
+        <v>49.83957219251337</v>
       </c>
       <c r="BP109">
-        <v>202.2</v>
-      </c>
-      <c r="BQ109">
-        <v>49.83957219251337</v>
-      </c>
-      <c r="BR109">
         <v>44.49197860962567</v>
       </c>
     </row>
-    <row r="110" spans="1:70">
+    <row r="110" spans="1:68">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
@@ -24873,7 +24213,7 @@
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G110">
         <v>150000</v>
@@ -25056,27 +24396,21 @@
         <v>0</v>
       </c>
       <c r="BO110">
-        <v>248.6</v>
+        <v>25.77540106951871</v>
       </c>
       <c r="BP110">
-        <v>161.8</v>
-      </c>
-      <c r="BQ110">
-        <v>25.77540106951871</v>
-      </c>
-      <c r="BR110">
         <v>57.21925133689839</v>
       </c>
     </row>
-    <row r="111" spans="1:70">
+    <row r="111" spans="1:68">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
@@ -25085,7 +24419,7 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G111">
         <v>1540000</v>
@@ -25268,36 +24602,30 @@
         <v>0</v>
       </c>
       <c r="BO111">
-        <v>102.8</v>
+        <v>67.05882352941177</v>
       </c>
       <c r="BP111">
-        <v>128.4</v>
-      </c>
-      <c r="BQ111">
-        <v>67.05882352941177</v>
-      </c>
-      <c r="BR111">
         <v>68.66310160427808</v>
       </c>
     </row>
-    <row r="112" spans="1:70">
+    <row r="112" spans="1:68">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C112" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E112">
         <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G112">
         <v>845000</v>
@@ -25480,27 +24808,21 @@
         <v>0</v>
       </c>
       <c r="BO112">
-        <v>136.4</v>
+        <v>59.78609625668449</v>
       </c>
       <c r="BP112">
-        <v>192.4</v>
-      </c>
-      <c r="BQ112">
-        <v>59.78609625668449</v>
-      </c>
-      <c r="BR112">
         <v>48.34224598930481</v>
       </c>
     </row>
-    <row r="113" spans="1:70">
+    <row r="113" spans="1:68">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D113" t="s">
         <v>29</v>
@@ -25509,7 +24831,7 @@
         <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G113">
         <v>1897000</v>
@@ -25692,36 +25014,30 @@
         <v>0</v>
       </c>
       <c r="BO113">
-        <v>95.8</v>
+        <v>72.62032085561498</v>
       </c>
       <c r="BP113">
-        <v>159.4</v>
-      </c>
-      <c r="BQ113">
-        <v>72.62032085561498</v>
-      </c>
-      <c r="BR113">
         <v>55.40106951871658</v>
       </c>
     </row>
-    <row r="114" spans="1:70">
+    <row r="114" spans="1:68">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E114">
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G114">
         <v>1459000</v>
@@ -25904,36 +25220,30 @@
         <v>0</v>
       </c>
       <c r="BO114">
-        <v>247.8</v>
+        <v>27.9144385026738</v>
       </c>
       <c r="BP114">
-        <v>312.2</v>
-      </c>
-      <c r="BQ114">
-        <v>27.9144385026738</v>
-      </c>
-      <c r="BR114">
         <v>18.82352941176471</v>
       </c>
     </row>
-    <row r="115" spans="1:70">
+    <row r="115" spans="1:68">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D115" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E115">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G115">
         <v>250000</v>
@@ -26116,36 +25426,30 @@
         <v>0</v>
       </c>
       <c r="BO115">
-        <v>224</v>
+        <v>31.65775401069519</v>
       </c>
       <c r="BP115">
-        <v>157.2</v>
-      </c>
-      <c r="BQ115">
-        <v>31.65775401069519</v>
-      </c>
-      <c r="BR115">
         <v>58.07486631016042</v>
       </c>
     </row>
-    <row r="116" spans="1:70">
+    <row r="116" spans="1:68">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D116" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E116">
         <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G116">
         <v>620000</v>
@@ -26328,36 +25632,30 @@
         <v>0</v>
       </c>
       <c r="BO116">
-        <v>243</v>
+        <v>29.94652406417112</v>
       </c>
       <c r="BP116">
-        <v>183</v>
-      </c>
-      <c r="BQ116">
-        <v>29.94652406417112</v>
-      </c>
-      <c r="BR116">
         <v>51.87165775401069</v>
       </c>
     </row>
-    <row r="117" spans="1:70">
+    <row r="117" spans="1:68">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D117" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E117">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G117">
         <v>800000</v>
@@ -26540,36 +25838,30 @@
         <v>1</v>
       </c>
       <c r="BO117">
-        <v>171</v>
+        <v>49.94652406417113</v>
       </c>
       <c r="BP117">
-        <v>230</v>
-      </c>
-      <c r="BQ117">
-        <v>49.94652406417113</v>
-      </c>
-      <c r="BR117">
         <v>37.96791443850267</v>
       </c>
     </row>
-    <row r="118" spans="1:70">
+    <row r="118" spans="1:68">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D118" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E118">
         <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G118">
         <v>1000000</v>
@@ -26752,36 +26044,30 @@
         <v>0</v>
       </c>
       <c r="BO118">
-        <v>106.6</v>
+        <v>64.81283422459893</v>
       </c>
       <c r="BP118">
-        <v>117.8</v>
-      </c>
-      <c r="BQ118">
-        <v>64.81283422459893</v>
-      </c>
-      <c r="BR118">
         <v>69.73262032085562</v>
       </c>
     </row>
-    <row r="119" spans="1:70">
+    <row r="119" spans="1:68">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E119">
         <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G119">
         <v>2000000</v>
@@ -26964,36 +26250,30 @@
         <v>0</v>
       </c>
       <c r="BO119">
-        <v>112.8</v>
+        <v>66.7379679144385</v>
       </c>
       <c r="BP119">
-        <v>286</v>
-      </c>
-      <c r="BQ119">
-        <v>66.7379679144385</v>
-      </c>
-      <c r="BR119">
         <v>25.24064171122995</v>
       </c>
     </row>
-    <row r="120" spans="1:70">
+    <row r="120" spans="1:68">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E120">
         <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G120">
         <v>300000</v>
@@ -27176,36 +26456,30 @@
         <v>0</v>
       </c>
       <c r="BO120">
-        <v>202.4</v>
+        <v>35.40106951871658</v>
       </c>
       <c r="BP120">
-        <v>229.8</v>
-      </c>
-      <c r="BQ120">
-        <v>35.40106951871658</v>
-      </c>
-      <c r="BR120">
         <v>36.04278074866311</v>
       </c>
     </row>
-    <row r="121" spans="1:70">
+    <row r="121" spans="1:68">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D121" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E121">
         <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G121">
         <v>1963000</v>
@@ -27388,27 +26662,21 @@
         <v>0</v>
       </c>
       <c r="BO121">
-        <v>163.6</v>
+        <v>51.44385026737967</v>
       </c>
       <c r="BP121">
-        <v>187.2</v>
-      </c>
-      <c r="BQ121">
-        <v>51.44385026737967</v>
-      </c>
-      <c r="BR121">
         <v>51.33689839572193</v>
       </c>
     </row>
-    <row r="122" spans="1:70">
+    <row r="122" spans="1:68">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
@@ -27417,7 +26685,7 @@
         <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G122">
         <v>2200000</v>
@@ -27600,27 +26868,21 @@
         <v>0</v>
       </c>
       <c r="BO122">
-        <v>136.2</v>
+        <v>62.24598930481283</v>
       </c>
       <c r="BP122">
-        <v>141.2</v>
-      </c>
-      <c r="BQ122">
-        <v>62.24598930481283</v>
-      </c>
-      <c r="BR122">
         <v>65.24064171122996</v>
       </c>
     </row>
-    <row r="123" spans="1:70">
+    <row r="123" spans="1:68">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
@@ -27629,7 +26891,7 @@
         <v>23</v>
       </c>
       <c r="F123" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G123">
         <v>250000</v>
@@ -27812,36 +27074,30 @@
         <v>0</v>
       </c>
       <c r="BO123">
-        <v>136.8</v>
+        <v>57.75401069518716</v>
       </c>
       <c r="BP123">
-        <v>219.4</v>
-      </c>
-      <c r="BQ123">
-        <v>57.75401069518716</v>
-      </c>
-      <c r="BR123">
         <v>40.74866310160428</v>
       </c>
     </row>
-    <row r="124" spans="1:70">
+    <row r="124" spans="1:68">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D124" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E124">
         <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G124">
         <v>2867000</v>
@@ -28024,36 +27280,30 @@
         <v>0</v>
       </c>
       <c r="BO124">
-        <v>78.8</v>
+        <v>75.18716577540107</v>
       </c>
       <c r="BP124">
-        <v>144.6</v>
-      </c>
-      <c r="BQ124">
-        <v>75.18716577540107</v>
-      </c>
-      <c r="BR124">
         <v>61.92513368983958</v>
       </c>
     </row>
-    <row r="125" spans="1:70">
+    <row r="125" spans="1:68">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D125" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E125">
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G125">
         <v>1059500</v>
@@ -28236,36 +27486,30 @@
         <v>0</v>
       </c>
       <c r="BO125">
-        <v>139</v>
+        <v>61.3903743315508</v>
       </c>
       <c r="BP125">
-        <v>128.6</v>
-      </c>
-      <c r="BQ125">
-        <v>61.3903743315508</v>
-      </c>
-      <c r="BR125">
         <v>64.81283422459893</v>
       </c>
     </row>
-    <row r="126" spans="1:70">
+    <row r="126" spans="1:68">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E126">
         <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G126">
         <v>1120000</v>
@@ -28448,36 +27692,30 @@
         <v>0</v>
       </c>
       <c r="BO126">
-        <v>189.6</v>
+        <v>43.85026737967914</v>
       </c>
       <c r="BP126">
-        <v>187.2</v>
-      </c>
-      <c r="BQ126">
-        <v>43.85026737967914</v>
-      </c>
-      <c r="BR126">
         <v>47.16577540106952</v>
       </c>
     </row>
-    <row r="127" spans="1:70">
+    <row r="127" spans="1:68">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E127">
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G127">
         <v>250000</v>
@@ -28660,27 +27898,21 @@
         <v>0</v>
       </c>
       <c r="BO127">
-        <v>161.4</v>
+        <v>51.76470588235293</v>
       </c>
       <c r="BP127">
-        <v>95</v>
-      </c>
-      <c r="BQ127">
-        <v>51.76470588235293</v>
-      </c>
-      <c r="BR127">
         <v>78.6096256684492</v>
       </c>
     </row>
-    <row r="128" spans="1:70">
+    <row r="128" spans="1:68">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
@@ -28689,7 +27921,7 @@
         <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G128">
         <v>1750000</v>
@@ -28872,36 +28104,30 @@
         <v>0</v>
       </c>
       <c r="BO128">
-        <v>285</v>
+        <v>17.32620320855615</v>
       </c>
       <c r="BP128">
-        <v>367.2</v>
-      </c>
-      <c r="BQ128">
-        <v>17.32620320855615</v>
-      </c>
-      <c r="BR128">
         <v>4.491978609625669</v>
       </c>
     </row>
-    <row r="129" spans="1:70">
+    <row r="129" spans="1:68">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E129">
         <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G129">
         <v>1300000</v>
@@ -29084,36 +28310,30 @@
         <v>0</v>
       </c>
       <c r="BO129">
-        <v>207.2</v>
+        <v>40.10695187165776</v>
       </c>
       <c r="BP129">
-        <v>180.6</v>
-      </c>
-      <c r="BQ129">
-        <v>40.10695187165776</v>
-      </c>
-      <c r="BR129">
         <v>49.73262032085562</v>
       </c>
     </row>
-    <row r="130" spans="1:70">
+    <row r="130" spans="1:68">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D130" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E130">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G130">
         <v>650000</v>
@@ -29296,36 +28516,30 @@
         <v>1</v>
       </c>
       <c r="BO130">
-        <v>183.8</v>
+        <v>42.67379679144385</v>
       </c>
       <c r="BP130">
-        <v>130</v>
-      </c>
-      <c r="BQ130">
-        <v>42.67379679144385</v>
-      </c>
-      <c r="BR130">
         <v>66.31016042780749</v>
       </c>
     </row>
-    <row r="131" spans="1:70">
+    <row r="131" spans="1:68">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E131">
         <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G131">
         <v>1458000</v>
@@ -29508,36 +28722,30 @@
         <v>0</v>
       </c>
       <c r="BO131">
-        <v>121.8</v>
+        <v>62.67379679144385</v>
       </c>
       <c r="BP131">
-        <v>207.8</v>
-      </c>
-      <c r="BQ131">
-        <v>62.67379679144385</v>
-      </c>
-      <c r="BR131">
         <v>41.28342245989305</v>
       </c>
     </row>
-    <row r="132" spans="1:70">
+    <row r="132" spans="1:68">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D132" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E132">
         <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G132">
         <v>962500</v>
@@ -29720,36 +28928,30 @@
         <v>0</v>
       </c>
       <c r="BO132">
-        <v>236.6</v>
+        <v>29.51871657754011</v>
       </c>
       <c r="BP132">
-        <v>164.6</v>
-      </c>
-      <c r="BQ132">
-        <v>29.51871657754011</v>
-      </c>
-      <c r="BR132">
         <v>53.68983957219252</v>
       </c>
     </row>
-    <row r="133" spans="1:70">
+    <row r="133" spans="1:68">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D133" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E133">
         <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G133">
         <v>2500000</v>
@@ -29932,27 +29134,21 @@
         <v>0</v>
       </c>
       <c r="BO133">
-        <v>197.6</v>
+        <v>44.70588235294117</v>
       </c>
       <c r="BP133">
-        <v>145.8</v>
-      </c>
-      <c r="BQ133">
-        <v>44.70588235294117</v>
-      </c>
-      <c r="BR133">
         <v>61.1764705882353</v>
       </c>
     </row>
-    <row r="134" spans="1:70">
+    <row r="134" spans="1:68">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
@@ -29961,7 +29157,7 @@
         <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G134">
         <v>1485000</v>
@@ -30141,36 +29337,30 @@
         <v>0</v>
       </c>
       <c r="BO134">
-        <v>314.2</v>
+        <v>34.11764705882353</v>
       </c>
       <c r="BP134">
-        <v>238</v>
-      </c>
-      <c r="BQ134">
-        <v>34.11764705882353</v>
-      </c>
-      <c r="BR134">
         <v>34.97326203208556</v>
       </c>
     </row>
-    <row r="135" spans="1:70">
+    <row r="135" spans="1:68">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E135">
         <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G135">
         <v>1900000</v>
@@ -30353,36 +29543,30 @@
         <v>0</v>
       </c>
       <c r="BO135">
-        <v>143.6</v>
+        <v>54.97326203208556</v>
       </c>
       <c r="BP135">
-        <v>143</v>
-      </c>
-      <c r="BQ135">
-        <v>54.97326203208556</v>
-      </c>
-      <c r="BR135">
         <v>65.98930481283422</v>
       </c>
     </row>
-    <row r="136" spans="1:70">
+    <row r="136" spans="1:68">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D136" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E136">
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G136">
         <v>2600000</v>
@@ -30565,36 +29749,30 @@
         <v>0</v>
       </c>
       <c r="BO136">
-        <v>180</v>
+        <v>48.23529411764706</v>
       </c>
       <c r="BP136">
-        <v>177.4</v>
-      </c>
-      <c r="BQ136">
-        <v>48.23529411764706</v>
-      </c>
-      <c r="BR136">
         <v>50.37433155080214</v>
       </c>
     </row>
-    <row r="137" spans="1:70">
+    <row r="137" spans="1:68">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D137" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E137">
         <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G137">
         <v>3200000</v>
@@ -30777,36 +29955,30 @@
         <v>0</v>
       </c>
       <c r="BO137">
-        <v>167.8</v>
+        <v>54.22459893048129</v>
       </c>
       <c r="BP137">
-        <v>55.8</v>
-      </c>
-      <c r="BQ137">
-        <v>54.22459893048129</v>
-      </c>
-      <c r="BR137">
         <v>88.3422459893048</v>
       </c>
     </row>
-    <row r="138" spans="1:70">
+    <row r="138" spans="1:68">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D138" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E138">
         <v>22</v>
       </c>
       <c r="F138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G138">
         <v>1300000</v>
@@ -30989,27 +30161,21 @@
         <v>0</v>
       </c>
       <c r="BO138">
-        <v>152.2</v>
+        <v>52.40641711229947</v>
       </c>
       <c r="BP138">
-        <v>103.2</v>
-      </c>
-      <c r="BQ138">
-        <v>52.40641711229947</v>
-      </c>
-      <c r="BR138">
         <v>75.50802139037432</v>
       </c>
     </row>
-    <row r="139" spans="1:70">
+    <row r="139" spans="1:68">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
@@ -31018,7 +30184,7 @@
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G139">
         <v>2215000</v>
@@ -31201,36 +30367,30 @@
         <v>0</v>
       </c>
       <c r="BO139">
-        <v>176.6</v>
+        <v>46.73796791443851</v>
       </c>
       <c r="BP139">
-        <v>169.6</v>
-      </c>
-      <c r="BQ139">
-        <v>46.73796791443851</v>
-      </c>
-      <c r="BR139">
         <v>53.26203208556149</v>
       </c>
     </row>
-    <row r="140" spans="1:70">
+    <row r="140" spans="1:68">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C140" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E140">
         <v>27</v>
       </c>
       <c r="F140" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G140">
         <v>2600000</v>
@@ -31413,36 +30573,30 @@
         <v>0</v>
       </c>
       <c r="BO140">
-        <v>100.4</v>
+        <v>71.22994652406418</v>
       </c>
       <c r="BP140">
-        <v>35.4</v>
-      </c>
-      <c r="BQ140">
-        <v>71.22994652406418</v>
-      </c>
-      <c r="BR140">
         <v>94.54545454545456</v>
       </c>
     </row>
-    <row r="141" spans="1:70">
+    <row r="141" spans="1:68">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D141" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E141">
         <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G141">
         <v>2120700</v>
@@ -31625,36 +30779,30 @@
         <v>0</v>
       </c>
       <c r="BO141">
-        <v>104.6</v>
+        <v>69.30481283422459</v>
       </c>
       <c r="BP141">
-        <v>274.6</v>
-      </c>
-      <c r="BQ141">
-        <v>69.30481283422459</v>
-      </c>
-      <c r="BR141">
         <v>23.10160427807487</v>
       </c>
     </row>
-    <row r="142" spans="1:70">
+    <row r="142" spans="1:68">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E142">
         <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G142">
         <v>2732000</v>
@@ -31837,36 +30985,30 @@
         <v>0</v>
       </c>
       <c r="BO142">
-        <v>65</v>
+        <v>80.32085561497325</v>
       </c>
       <c r="BP142">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="BQ142">
-        <v>80.32085561497325</v>
-      </c>
-      <c r="BR142">
         <v>85.45454545454547</v>
       </c>
     </row>
-    <row r="143" spans="1:70">
+    <row r="143" spans="1:68">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D143" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E143">
         <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G143">
         <v>2900000</v>
@@ -32049,36 +31191,30 @@
         <v>0</v>
       </c>
       <c r="BO143">
-        <v>82.40000000000001</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="BP143">
-        <v>135.8</v>
-      </c>
-      <c r="BQ143">
-        <v>74.54545454545455</v>
-      </c>
-      <c r="BR143">
         <v>61.92513368983958</v>
       </c>
     </row>
-    <row r="144" spans="1:70">
+    <row r="144" spans="1:68">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D144" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E144">
         <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G144">
         <v>845000</v>
@@ -32261,36 +31397,30 @@
         <v>0</v>
       </c>
       <c r="BO144">
-        <v>186.2</v>
+        <v>43.9572192513369</v>
       </c>
       <c r="BP144">
-        <v>273.8</v>
-      </c>
-      <c r="BQ144">
-        <v>43.9572192513369</v>
-      </c>
-      <c r="BR144">
         <v>25.66844919786097</v>
       </c>
     </row>
-    <row r="145" spans="1:70">
+    <row r="145" spans="1:68">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E145">
         <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G145">
         <v>715000</v>
@@ -32473,27 +31603,21 @@
         <v>0</v>
       </c>
       <c r="BO145">
-        <v>159</v>
+        <v>49.5187165775401</v>
       </c>
       <c r="BP145">
-        <v>218.6</v>
-      </c>
-      <c r="BQ145">
-        <v>49.5187165775401</v>
-      </c>
-      <c r="BR145">
         <v>41.28342245989305</v>
       </c>
     </row>
-    <row r="146" spans="1:70">
+    <row r="146" spans="1:68">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C146" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D146" t="s">
         <v>29</v>
@@ -32502,7 +31626,7 @@
         <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G146">
         <v>1560000</v>
@@ -32685,36 +31809,30 @@
         <v>0</v>
       </c>
       <c r="BO146">
-        <v>101.8</v>
+        <v>69.94652406417113</v>
       </c>
       <c r="BP146">
-        <v>121.4</v>
-      </c>
-      <c r="BQ146">
-        <v>69.94652406417113</v>
-      </c>
-      <c r="BR146">
         <v>69.73262032085562</v>
       </c>
     </row>
-    <row r="147" spans="1:70">
+    <row r="147" spans="1:68">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C147" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D147" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E147">
         <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G147">
         <v>975000</v>
@@ -32897,36 +32015,30 @@
         <v>1</v>
       </c>
       <c r="BO147">
-        <v>148.4</v>
+        <v>53.15508021390375</v>
       </c>
       <c r="BP147">
-        <v>143.4</v>
-      </c>
-      <c r="BQ147">
-        <v>53.15508021390375</v>
-      </c>
-      <c r="BR147">
         <v>61.60427807486631</v>
       </c>
     </row>
-    <row r="148" spans="1:70">
+    <row r="148" spans="1:68">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C148" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E148">
         <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G148">
         <v>650000</v>
@@ -33109,36 +32221,30 @@
         <v>0</v>
       </c>
       <c r="BO148">
-        <v>174.8</v>
+        <v>46.73796791443851</v>
       </c>
       <c r="BP148">
-        <v>312.6</v>
-      </c>
-      <c r="BQ148">
-        <v>46.73796791443851</v>
-      </c>
-      <c r="BR148">
         <v>17.11229946524064</v>
       </c>
     </row>
-    <row r="149" spans="1:70">
+    <row r="149" spans="1:68">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E149">
         <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G149">
         <v>265000</v>
@@ -33321,36 +32427,30 @@
         <v>0</v>
       </c>
       <c r="BO149">
-        <v>242.2</v>
+        <v>27.37967914438503</v>
       </c>
       <c r="BP149">
-        <v>242.6</v>
-      </c>
-      <c r="BQ149">
-        <v>27.37967914438503</v>
-      </c>
-      <c r="BR149">
         <v>31.76470588235294</v>
       </c>
     </row>
-    <row r="150" spans="1:70">
+    <row r="150" spans="1:68">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E150">
         <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G150">
         <v>2652000</v>
@@ -33530,36 +32630,30 @@
         <v>0</v>
       </c>
       <c r="BO150">
-        <v>215</v>
+        <v>57.96791443850267</v>
       </c>
       <c r="BP150">
-        <v>205</v>
-      </c>
-      <c r="BQ150">
-        <v>57.96791443850267</v>
-      </c>
-      <c r="BR150">
         <v>45.24064171122995</v>
       </c>
     </row>
-    <row r="151" spans="1:70">
+    <row r="151" spans="1:68">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E151">
         <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G151">
         <v>672000</v>
@@ -33742,36 +32836,30 @@
         <v>0</v>
       </c>
       <c r="BO151">
-        <v>212.2</v>
+        <v>34.97326203208556</v>
       </c>
       <c r="BP151">
-        <v>195.2</v>
-      </c>
-      <c r="BQ151">
-        <v>34.97326203208556</v>
-      </c>
-      <c r="BR151">
         <v>45.77540106951871</v>
       </c>
     </row>
-    <row r="152" spans="1:70">
+    <row r="152" spans="1:68">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D152" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E152">
         <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G152">
         <v>1260000</v>
@@ -33954,36 +33042,30 @@
         <v>0</v>
       </c>
       <c r="BO152">
-        <v>122.6</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="BP152">
-        <v>187</v>
-      </c>
-      <c r="BQ152">
-        <v>65.45454545454545</v>
-      </c>
-      <c r="BR152">
         <v>47.70053475935829</v>
       </c>
     </row>
-    <row r="153" spans="1:70">
+    <row r="153" spans="1:68">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D153" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E153">
         <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G153">
         <v>3297000</v>
@@ -34163,36 +33245,30 @@
         <v>0</v>
       </c>
       <c r="BO153">
-        <v>220.8</v>
+        <v>58.93048128342247</v>
       </c>
       <c r="BP153">
-        <v>225.8</v>
-      </c>
-      <c r="BQ153">
-        <v>58.93048128342247</v>
-      </c>
-      <c r="BR153">
         <v>40.32085561497327</v>
       </c>
     </row>
-    <row r="154" spans="1:70">
+    <row r="154" spans="1:68">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D154" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E154">
         <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G154">
         <v>2181400</v>
@@ -34375,36 +33451,30 @@
         <v>0</v>
       </c>
       <c r="BO154">
-        <v>188</v>
+        <v>43.31550802139038</v>
       </c>
       <c r="BP154">
-        <v>292.8</v>
-      </c>
-      <c r="BQ154">
-        <v>43.31550802139038</v>
-      </c>
-      <c r="BR154">
         <v>19.14438502673797</v>
       </c>
     </row>
-    <row r="155" spans="1:70">
+    <row r="155" spans="1:68">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C155" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E155">
         <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G155">
         <v>2857000</v>
@@ -34587,27 +33657,21 @@
         <v>0</v>
       </c>
       <c r="BO155">
-        <v>126.6</v>
+        <v>61.60427807486631</v>
       </c>
       <c r="BP155">
-        <v>133.4</v>
-      </c>
-      <c r="BQ155">
-        <v>61.60427807486631</v>
-      </c>
-      <c r="BR155">
         <v>64.06417112299465</v>
       </c>
     </row>
-    <row r="156" spans="1:70">
+    <row r="156" spans="1:68">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C156" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
@@ -34616,7 +33680,7 @@
         <v>25</v>
       </c>
       <c r="F156" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G156">
         <v>1950000</v>
@@ -34799,36 +33863,30 @@
         <v>0</v>
       </c>
       <c r="BO156">
-        <v>230.4</v>
+        <v>28.77005347593582</v>
       </c>
       <c r="BP156">
-        <v>289</v>
-      </c>
-      <c r="BQ156">
-        <v>28.77005347593582</v>
-      </c>
-      <c r="BR156">
         <v>22.45989304812834</v>
       </c>
     </row>
-    <row r="157" spans="1:70">
+    <row r="157" spans="1:68">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C157" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D157" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E157">
         <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G157">
         <v>2633000</v>
@@ -35011,27 +34069,21 @@
         <v>0</v>
       </c>
       <c r="BO157">
-        <v>168.2</v>
+        <v>47.80748663101605</v>
       </c>
       <c r="BP157">
-        <v>94</v>
-      </c>
-      <c r="BQ157">
-        <v>47.80748663101605</v>
-      </c>
-      <c r="BR157">
         <v>78.6096256684492</v>
       </c>
     </row>
-    <row r="158" spans="1:70">
+    <row r="158" spans="1:68">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
@@ -35040,7 +34092,7 @@
         <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G158">
         <v>150000</v>
@@ -35223,36 +34275,30 @@
         <v>0</v>
       </c>
       <c r="BO158">
-        <v>162.8</v>
+        <v>51.01604278074867</v>
       </c>
       <c r="BP158">
-        <v>185.2</v>
-      </c>
-      <c r="BQ158">
-        <v>51.01604278074867</v>
-      </c>
-      <c r="BR158">
         <v>50.05347593582887</v>
       </c>
     </row>
-    <row r="159" spans="1:70">
+    <row r="159" spans="1:68">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D159" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E159">
         <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G159">
         <v>1050000</v>
@@ -35435,36 +34481,30 @@
         <v>0</v>
       </c>
       <c r="BO159">
-        <v>215</v>
+        <v>32.19251336898396</v>
       </c>
       <c r="BP159">
-        <v>275.8</v>
-      </c>
-      <c r="BQ159">
-        <v>32.19251336898396</v>
-      </c>
-      <c r="BR159">
         <v>22.88770053475936</v>
       </c>
     </row>
-    <row r="160" spans="1:70">
+    <row r="160" spans="1:68">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D160" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E160">
         <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G160">
         <v>700000</v>
@@ -35647,36 +34687,30 @@
         <v>0</v>
       </c>
       <c r="BO160">
-        <v>151.6</v>
+        <v>53.15508021390375</v>
       </c>
       <c r="BP160">
-        <v>308.6</v>
-      </c>
-      <c r="BQ160">
-        <v>53.15508021390375</v>
-      </c>
-      <c r="BR160">
         <v>20.74866310160428</v>
       </c>
     </row>
-    <row r="161" spans="1:70">
+    <row r="161" spans="1:68">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D161" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E161">
         <v>27</v>
       </c>
       <c r="F161" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G161">
         <v>1881250</v>
@@ -35856,36 +34890,30 @@
         <v>0</v>
       </c>
       <c r="BO161">
-        <v>244.6</v>
+        <v>53.15508021390375</v>
       </c>
       <c r="BP161">
-        <v>176.4</v>
-      </c>
-      <c r="BQ161">
-        <v>53.15508021390375</v>
-      </c>
-      <c r="BR161">
         <v>50.90909090909091</v>
       </c>
     </row>
-    <row r="162" spans="1:70">
+    <row r="162" spans="1:68">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C162" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D162" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E162">
         <v>24</v>
       </c>
       <c r="F162" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G162">
         <v>890000</v>
@@ -36068,36 +35096,30 @@
         <v>0</v>
       </c>
       <c r="BO162">
-        <v>62.4</v>
+        <v>80.32085561497325</v>
       </c>
       <c r="BP162">
-        <v>179.4</v>
-      </c>
-      <c r="BQ162">
-        <v>80.32085561497325</v>
-      </c>
-      <c r="BR162">
         <v>51.22994652406418</v>
       </c>
     </row>
-    <row r="163" spans="1:70">
+    <row r="163" spans="1:68">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D163" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E163">
         <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G163">
         <v>1362500</v>
@@ -36280,36 +35302,30 @@
         <v>0</v>
       </c>
       <c r="BO163">
-        <v>127</v>
+        <v>59.57219251336898</v>
       </c>
       <c r="BP163">
-        <v>132</v>
-      </c>
-      <c r="BQ163">
-        <v>59.57219251336898</v>
-      </c>
-      <c r="BR163">
         <v>66.63101604278074</v>
       </c>
     </row>
-    <row r="164" spans="1:70">
+    <row r="164" spans="1:68">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D164" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E164">
         <v>24</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G164">
         <v>1375000</v>
@@ -36492,36 +35508,30 @@
         <v>0</v>
       </c>
       <c r="BO164">
-        <v>153.2</v>
+        <v>57.54010695187165</v>
       </c>
       <c r="BP164">
-        <v>132.4</v>
-      </c>
-      <c r="BQ164">
-        <v>57.54010695187165</v>
-      </c>
-      <c r="BR164">
         <v>67.59358288770055</v>
       </c>
     </row>
-    <row r="165" spans="1:70">
+    <row r="165" spans="1:68">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D165" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E165">
         <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G165">
         <v>1920000</v>
@@ -36704,27 +35714,21 @@
         <v>0</v>
       </c>
       <c r="BO165">
-        <v>82.59999999999999</v>
+        <v>74.75935828877006</v>
       </c>
       <c r="BP165">
-        <v>53</v>
-      </c>
-      <c r="BQ165">
-        <v>74.75935828877006</v>
-      </c>
-      <c r="BR165">
         <v>88.77005347593582</v>
       </c>
     </row>
-    <row r="166" spans="1:70">
+    <row r="166" spans="1:68">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
@@ -36733,7 +35737,7 @@
         <v>26</v>
       </c>
       <c r="F166" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G166">
         <v>500000</v>
@@ -36916,36 +35920,30 @@
         <v>0</v>
       </c>
       <c r="BO166">
-        <v>230.6</v>
+        <v>33.90374331550802</v>
       </c>
       <c r="BP166">
-        <v>242.2</v>
-      </c>
-      <c r="BQ166">
-        <v>33.90374331550802</v>
-      </c>
-      <c r="BR166">
         <v>34.86631016042781</v>
       </c>
     </row>
-    <row r="167" spans="1:70">
+    <row r="167" spans="1:68">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E167">
         <v>30</v>
       </c>
       <c r="F167" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G167">
         <v>3000000</v>
@@ -37128,36 +36126,30 @@
         <v>0</v>
       </c>
       <c r="BO167">
-        <v>114.4</v>
+        <v>67.05882352941177</v>
       </c>
       <c r="BP167">
-        <v>139.4</v>
-      </c>
-      <c r="BQ167">
-        <v>67.05882352941177</v>
-      </c>
-      <c r="BR167">
         <v>62.56684491978609</v>
       </c>
     </row>
-    <row r="168" spans="1:70">
+    <row r="168" spans="1:68">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D168" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E168">
         <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G168">
         <v>2400000</v>
@@ -37340,27 +36332,21 @@
         <v>0</v>
       </c>
       <c r="BO168">
-        <v>166.2</v>
+        <v>53.26203208556149</v>
       </c>
       <c r="BP168">
-        <v>130</v>
-      </c>
-      <c r="BQ168">
-        <v>53.26203208556149</v>
-      </c>
-      <c r="BR168">
         <v>67.9144385026738</v>
       </c>
     </row>
-    <row r="169" spans="1:70">
+    <row r="169" spans="1:68">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
@@ -37369,7 +36355,7 @@
         <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G169">
         <v>850000</v>
@@ -37549,36 +36535,30 @@
         <v>0</v>
       </c>
       <c r="BO169">
-        <v>281</v>
+        <v>41.3903743315508</v>
       </c>
       <c r="BP169">
-        <v>225.4</v>
-      </c>
-      <c r="BQ169">
-        <v>41.3903743315508</v>
-      </c>
-      <c r="BR169">
         <v>40.42780748663101</v>
       </c>
     </row>
-    <row r="170" spans="1:70">
+    <row r="170" spans="1:68">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D170" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E170">
         <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G170">
         <v>715000</v>
@@ -37761,36 +36741,30 @@
         <v>0</v>
       </c>
       <c r="BO170">
-        <v>252</v>
+        <v>27.37967914438503</v>
       </c>
       <c r="BP170">
-        <v>349.4</v>
-      </c>
-      <c r="BQ170">
-        <v>27.37967914438503</v>
-      </c>
-      <c r="BR170">
         <v>9.839572192513369</v>
       </c>
     </row>
-    <row r="171" spans="1:70">
+    <row r="171" spans="1:68">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C171" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D171" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E171">
         <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G171">
         <v>1900000</v>
@@ -37973,27 +36947,21 @@
         <v>0</v>
       </c>
       <c r="BO171">
-        <v>120.8</v>
+        <v>62.56684491978609</v>
       </c>
       <c r="BP171">
-        <v>120.2</v>
-      </c>
-      <c r="BQ171">
-        <v>62.56684491978609</v>
-      </c>
-      <c r="BR171">
         <v>69.09090909090908</v>
       </c>
     </row>
-    <row r="172" spans="1:70">
+    <row r="172" spans="1:68">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
@@ -38002,7 +36970,7 @@
         <v>26</v>
       </c>
       <c r="F172" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G172">
         <v>2750000</v>
@@ -38185,36 +37153,30 @@
         <v>0</v>
       </c>
       <c r="BO172">
-        <v>88.59999999999999</v>
+        <v>74.43850267379678</v>
       </c>
       <c r="BP172">
-        <v>123.8</v>
-      </c>
-      <c r="BQ172">
-        <v>74.43850267379678</v>
-      </c>
-      <c r="BR172">
         <v>68.1283422459893</v>
       </c>
     </row>
-    <row r="173" spans="1:70">
+    <row r="173" spans="1:68">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D173" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E173">
         <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G173">
         <v>150000</v>
@@ -38397,36 +37359,30 @@
         <v>0</v>
       </c>
       <c r="BO173">
-        <v>260.4</v>
+        <v>21.17647058823529</v>
       </c>
       <c r="BP173">
-        <v>248.8</v>
-      </c>
-      <c r="BQ173">
-        <v>21.17647058823529</v>
-      </c>
-      <c r="BR173">
         <v>30.6951871657754</v>
       </c>
     </row>
-    <row r="174" spans="1:70">
+    <row r="174" spans="1:68">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C174" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D174" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E174">
         <v>24</v>
       </c>
       <c r="F174" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G174">
         <v>4000000</v>
@@ -38609,36 +37565,30 @@
         <v>0</v>
       </c>
       <c r="BO174">
-        <v>55.8</v>
+        <v>83.20855614973262</v>
       </c>
       <c r="BP174">
-        <v>168</v>
-      </c>
-      <c r="BQ174">
-        <v>83.20855614973262</v>
-      </c>
-      <c r="BR174">
         <v>54.33155080213904</v>
       </c>
     </row>
-    <row r="175" spans="1:70">
+    <row r="175" spans="1:68">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D175" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E175">
         <v>31</v>
       </c>
       <c r="F175" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G175">
         <v>2071600</v>
@@ -38821,36 +37771,30 @@
         <v>0</v>
       </c>
       <c r="BO175">
-        <v>148.4</v>
+        <v>52.29946524064171</v>
       </c>
       <c r="BP175">
-        <v>173.4</v>
-      </c>
-      <c r="BQ175">
-        <v>52.29946524064171</v>
-      </c>
-      <c r="BR175">
         <v>52.51336898395722</v>
       </c>
     </row>
-    <row r="176" spans="1:70">
+    <row r="176" spans="1:68">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D176" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E176">
         <v>24</v>
       </c>
       <c r="F176" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G176">
         <v>250000</v>
@@ -39033,36 +37977,30 @@
         <v>0</v>
       </c>
       <c r="BO176">
-        <v>131.8</v>
+        <v>55.61497326203209</v>
       </c>
       <c r="BP176">
-        <v>208</v>
-      </c>
-      <c r="BQ176">
-        <v>55.61497326203209</v>
-      </c>
-      <c r="BR176">
         <v>42.88770053475936</v>
       </c>
     </row>
-    <row r="177" spans="1:70">
+    <row r="177" spans="1:68">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C177" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D177" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E177">
         <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G177">
         <v>1500000</v>
@@ -39242,27 +38180,21 @@
         <v>0</v>
       </c>
       <c r="BO177">
-        <v>235.6</v>
+        <v>57.54010695187165</v>
       </c>
       <c r="BP177">
-        <v>261</v>
-      </c>
-      <c r="BQ177">
-        <v>57.54010695187165</v>
-      </c>
-      <c r="BR177">
         <v>31.22994652406417</v>
       </c>
     </row>
-    <row r="178" spans="1:70">
+    <row r="178" spans="1:68">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D178" t="s">
         <v>29</v>
@@ -39271,7 +38203,7 @@
         <v>34</v>
       </c>
       <c r="F178" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G178">
         <v>3200000</v>
@@ -39454,36 +38386,30 @@
         <v>0</v>
       </c>
       <c r="BO178">
-        <v>130.8</v>
+        <v>60.85561497326203</v>
       </c>
       <c r="BP178">
-        <v>171.6</v>
-      </c>
-      <c r="BQ178">
-        <v>60.85561497326203</v>
-      </c>
-      <c r="BR178">
         <v>56.25668449197862</v>
       </c>
     </row>
-    <row r="179" spans="1:70">
+    <row r="179" spans="1:68">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C179" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D179" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E179">
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G179">
         <v>1000000</v>
@@ -39663,27 +38589,21 @@
         <v>0</v>
       </c>
       <c r="BO179">
-        <v>272</v>
+        <v>47.27272727272728</v>
       </c>
       <c r="BP179">
-        <v>336.6</v>
-      </c>
-      <c r="BQ179">
-        <v>47.27272727272728</v>
-      </c>
-      <c r="BR179">
         <v>10.58823529411765</v>
       </c>
     </row>
-    <row r="180" spans="1:70">
+    <row r="180" spans="1:68">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C180" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D180" t="s">
         <v>29</v>
@@ -39692,7 +38612,7 @@
         <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G180">
         <v>3786000</v>
@@ -39875,36 +38795,30 @@
         <v>0</v>
       </c>
       <c r="BO180">
-        <v>71</v>
+        <v>77.96791443850269</v>
       </c>
       <c r="BP180">
-        <v>160.4</v>
-      </c>
-      <c r="BQ180">
-        <v>77.96791443850269</v>
-      </c>
-      <c r="BR180">
         <v>57.75401069518716</v>
       </c>
     </row>
-    <row r="181" spans="1:70">
+    <row r="181" spans="1:68">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C181" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D181" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E181">
         <v>25</v>
       </c>
       <c r="F181" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G181">
         <v>200000</v>
@@ -40084,36 +38998,30 @@
         <v>0</v>
       </c>
       <c r="BO181">
-        <v>205.2</v>
+        <v>63.42245989304812</v>
       </c>
       <c r="BP181">
-        <v>268.6</v>
-      </c>
-      <c r="BQ181">
-        <v>63.42245989304812</v>
-      </c>
-      <c r="BR181">
         <v>27.37967914438503</v>
       </c>
     </row>
-    <row r="182" spans="1:70">
+    <row r="182" spans="1:68">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D182" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E182">
         <v>23</v>
       </c>
       <c r="F182" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G182">
         <v>650000</v>
@@ -40296,36 +39204,30 @@
         <v>0</v>
       </c>
       <c r="BO182">
-        <v>256.2</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="BP182">
-        <v>297.4</v>
-      </c>
-      <c r="BQ182">
-        <v>21.81818181818182</v>
-      </c>
-      <c r="BR182">
         <v>17.11229946524064</v>
       </c>
     </row>
-    <row r="183" spans="1:70">
+    <row r="183" spans="1:68">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D183" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E183">
         <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G183">
         <v>1567500</v>
@@ -40508,27 +39410,21 @@
         <v>0</v>
       </c>
       <c r="BO183">
-        <v>73</v>
+        <v>77.86096256684492</v>
       </c>
       <c r="BP183">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="BQ183">
-        <v>77.86096256684492</v>
-      </c>
-      <c r="BR183">
         <v>76.79144385026737</v>
       </c>
     </row>
-    <row r="184" spans="1:70">
+    <row r="184" spans="1:68">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D184" t="s">
         <v>29</v>
@@ -40537,7 +39433,7 @@
         <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G184">
         <v>1500000</v>
@@ -40720,36 +39616,30 @@
         <v>0</v>
       </c>
       <c r="BO184">
-        <v>158.2</v>
+        <v>54.01069518716578</v>
       </c>
       <c r="BP184">
-        <v>237.8</v>
-      </c>
-      <c r="BQ184">
-        <v>54.01069518716578</v>
-      </c>
-      <c r="BR184">
         <v>33.79679144385027</v>
       </c>
     </row>
-    <row r="185" spans="1:70">
+    <row r="185" spans="1:68">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C185" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D185" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E185">
         <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G185">
         <v>2040000</v>
@@ -40932,27 +39822,21 @@
         <v>0</v>
       </c>
       <c r="BO185">
-        <v>57.6</v>
+        <v>82.24598930481284</v>
       </c>
       <c r="BP185">
-        <v>119.8</v>
-      </c>
-      <c r="BQ185">
-        <v>82.24598930481284</v>
-      </c>
-      <c r="BR185">
         <v>69.83957219251337</v>
       </c>
     </row>
-    <row r="186" spans="1:70">
+    <row r="186" spans="1:68">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D186" t="s">
         <v>29</v>
@@ -40961,7 +39845,7 @@
         <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G186">
         <v>150000</v>
@@ -41144,36 +40028,30 @@
         <v>0</v>
       </c>
       <c r="BO186">
-        <v>233</v>
+        <v>30.37433155080214</v>
       </c>
       <c r="BP186">
-        <v>236.2</v>
-      </c>
-      <c r="BQ186">
-        <v>30.37433155080214</v>
-      </c>
-      <c r="BR186">
         <v>33.58288770053476</v>
       </c>
     </row>
-    <row r="187" spans="1:70">
+    <row r="187" spans="1:68">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C187" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D187" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E187">
         <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G187">
         <v>2020000</v>
@@ -41356,36 +40234,30 @@
         <v>0</v>
       </c>
       <c r="BO187">
-        <v>148.6</v>
+        <v>54.6524064171123</v>
       </c>
       <c r="BP187">
-        <v>244.4</v>
-      </c>
-      <c r="BQ187">
-        <v>54.6524064171123</v>
-      </c>
-      <c r="BR187">
         <v>36.25668449197861</v>
       </c>
     </row>
-    <row r="188" spans="1:70">
+    <row r="188" spans="1:68">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C188" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D188" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E188">
         <v>32</v>
       </c>
       <c r="F188" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G188">
         <v>150000</v>
@@ -41568,15 +40440,9 @@
         <v>0</v>
       </c>
       <c r="BO188">
-        <v>285.6</v>
+        <v>19.67914438502674</v>
       </c>
       <c r="BP188">
-        <v>163.6</v>
-      </c>
-      <c r="BQ188">
-        <v>19.67914438502674</v>
-      </c>
-      <c r="BR188">
         <v>57.96791443850267</v>
       </c>
     </row>
